--- a/data/trans_orig/P36A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36A-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>70164</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55449</v>
+        <v>56929</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86128</v>
+        <v>86313</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1567935926484467</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1239105693188252</v>
+        <v>0.1272185548239296</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1924673548201722</v>
+        <v>0.1928804772847126</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -764,19 +764,19 @@
         <v>38910</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28024</v>
+        <v>27577</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52259</v>
+        <v>51911</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09214466831955057</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06636526350661814</v>
+        <v>0.06530600045082581</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1237587979190216</v>
+        <v>0.12293407606351</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>109</v>
@@ -785,19 +785,19 @@
         <v>109074</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>89404</v>
+        <v>90421</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>129788</v>
+        <v>129607</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1254066550445613</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1027919251860575</v>
+        <v>0.1039613046955355</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1492233329913659</v>
+        <v>0.149014572598819</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>129218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>110986</v>
+        <v>111292</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>150420</v>
+        <v>148892</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2887602014391633</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.248017765919422</v>
+        <v>0.2487012760884947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3361395275900443</v>
+        <v>0.3327239026743432</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>95</v>
@@ -835,19 +835,19 @@
         <v>97271</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>80861</v>
+        <v>79269</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>116891</v>
+        <v>115622</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2303535595554495</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1914923931360533</v>
+        <v>0.1877216615433217</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2768177323012333</v>
+        <v>0.2738122166541872</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>219</v>
@@ -856,19 +856,19 @@
         <v>226489</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>200948</v>
+        <v>200618</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>253046</v>
+        <v>253839</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2604038808431651</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2310385476840181</v>
+        <v>0.2306592731459202</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2909373750365122</v>
+        <v>0.2918499236009336</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>143023</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>122725</v>
+        <v>123529</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>162127</v>
+        <v>163138</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3196098761808672</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.274250551533941</v>
+        <v>0.276046837347113</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.362300121347629</v>
+        <v>0.3645605445577211</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>137</v>
@@ -906,19 +906,19 @@
         <v>140921</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>121068</v>
+        <v>121810</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>159156</v>
+        <v>160621</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3337259117142585</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.286709126485831</v>
+        <v>0.2884666177360267</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3769082775261687</v>
+        <v>0.3803779392512346</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>277</v>
@@ -927,19 +927,19 @@
         <v>283945</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>255582</v>
+        <v>255289</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>310601</v>
+        <v>311035</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3264631862877261</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2938531768054985</v>
+        <v>0.293516281126013</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3571111902532518</v>
+        <v>0.3576098443800003</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>80329</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65844</v>
+        <v>64853</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98785</v>
+        <v>97090</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1795093441621222</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1471389232277674</v>
+        <v>0.1449245309040507</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2207510223612899</v>
+        <v>0.2169649171036926</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>108</v>
@@ -977,19 +977,19 @@
         <v>109962</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91980</v>
+        <v>92017</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>128492</v>
+        <v>128881</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2604086674144065</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2178241657390801</v>
+        <v>0.2179128148233787</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3042898242796472</v>
+        <v>0.305212827859834</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>188</v>
@@ -998,19 +998,19 @@
         <v>190291</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>167882</v>
+        <v>167399</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>216189</v>
+        <v>214366</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2187858214968126</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1930211025055789</v>
+        <v>0.192465422391757</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2485615050310599</v>
+        <v>0.2464651245268657</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>24758</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16301</v>
+        <v>16068</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36029</v>
+        <v>34739</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05532698556940063</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03642844971136822</v>
+        <v>0.03590781819086344</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08051255550670441</v>
+        <v>0.07762971625509209</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>34</v>
@@ -1048,19 +1048,19 @@
         <v>35203</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25547</v>
+        <v>25167</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47797</v>
+        <v>47945</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0833671929963349</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06050063989949889</v>
+        <v>0.05959897981572913</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1131920851928624</v>
+        <v>0.1135426396041202</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>59</v>
@@ -1069,19 +1069,19 @@
         <v>59962</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>45938</v>
+        <v>47304</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>76930</v>
+        <v>76388</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06894045632773488</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0528166725621704</v>
+        <v>0.05438785795854468</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08845000033404568</v>
+        <v>0.08782597433160716</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>120995</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>102122</v>
+        <v>101814</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>142947</v>
+        <v>142697</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1794121894535707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1514281814884455</v>
+        <v>0.1509717742060676</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2119636214445199</v>
+        <v>0.2115932175634093</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>89</v>
@@ -1241,19 +1241,19 @@
         <v>92946</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74741</v>
+        <v>75684</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>111282</v>
+        <v>111250</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1546280730991916</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1243419858437293</v>
+        <v>0.12591101009494</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1851327348826232</v>
+        <v>0.1850791731447726</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>208</v>
@@ -1262,19 +1262,19 @@
         <v>213940</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>188948</v>
+        <v>187384</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>243844</v>
+        <v>241401</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1677322835080335</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1481375799505586</v>
+        <v>0.1469116933594591</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1911771155092546</v>
+        <v>0.1892617779379622</v>
       </c>
     </row>
     <row r="12">
@@ -1291,19 +1291,19 @@
         <v>205843</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>181316</v>
+        <v>178848</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>230117</v>
+        <v>228138</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3052266644370066</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2688582278776784</v>
+        <v>0.2651974997149823</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3412207986953746</v>
+        <v>0.3382862632422462</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>131</v>
@@ -1312,19 +1312,19 @@
         <v>137071</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>117791</v>
+        <v>117066</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>160307</v>
+        <v>158034</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2280359128681587</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1959613647789572</v>
+        <v>0.1947545673373702</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2666925331881288</v>
+        <v>0.2629118772739082</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>326</v>
@@ -1333,19 +1333,19 @@
         <v>342914</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>312930</v>
+        <v>310999</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>375109</v>
+        <v>376274</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2688493046272762</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2453412006856331</v>
+        <v>0.2438278744177269</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2940906081129087</v>
+        <v>0.2950042128011063</v>
       </c>
     </row>
     <row r="13">
@@ -1362,19 +1362,19 @@
         <v>220185</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>195807</v>
+        <v>197646</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>244990</v>
+        <v>246965</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3264936288300623</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2903448011191503</v>
+        <v>0.2930721027953765</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.363274893229647</v>
+        <v>0.3662032720269639</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>171</v>
@@ -1383,19 +1383,19 @@
         <v>183606</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>160117</v>
+        <v>161227</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>208119</v>
+        <v>206454</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3054540322558721</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.266376610131232</v>
+        <v>0.2682237203456325</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3462345745452201</v>
+        <v>0.3434642586070684</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>386</v>
@@ -1404,19 +1404,19 @@
         <v>403792</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>369422</v>
+        <v>372706</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>438328</v>
+        <v>442125</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3165783869225102</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2896321304527084</v>
+        <v>0.2922069520336374</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3436553057918467</v>
+        <v>0.3466326720319721</v>
       </c>
     </row>
     <row r="14">
@@ -1433,19 +1433,19 @@
         <v>101979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>84196</v>
+        <v>83189</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>123358</v>
+        <v>121256</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1512152442703502</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1248469417412434</v>
+        <v>0.1233534468902596</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1829172885091582</v>
+        <v>0.1798006327377382</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>132</v>
@@ -1454,19 +1454,19 @@
         <v>142465</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>121444</v>
+        <v>121882</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>167629</v>
+        <v>164625</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2370105052265954</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2020390422429552</v>
+        <v>0.2027678645979949</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2788743209679195</v>
+        <v>0.2738753947068742</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>231</v>
@@ -1475,19 +1475,19 @@
         <v>244444</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>216353</v>
+        <v>216839</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>273485</v>
+        <v>273034</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1916476149150557</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.169623688699483</v>
+        <v>0.1700045375615458</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2144162589217096</v>
+        <v>0.2140625500473715</v>
       </c>
     </row>
     <row r="15">
@@ -1504,19 +1504,19 @@
         <v>25392</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17195</v>
+        <v>17171</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>37063</v>
+        <v>35995</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03765227300901029</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.025497682358272</v>
+        <v>0.02546168487409088</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05495753761650071</v>
+        <v>0.05337333905619251</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>40</v>
@@ -1525,19 +1525,19 @@
         <v>45005</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>33193</v>
+        <v>33744</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>60606</v>
+        <v>61886</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07487147655018207</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05522069175117188</v>
+        <v>0.05613803641131666</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1008264603705512</v>
+        <v>0.1029561413957362</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>66</v>
@@ -1546,19 +1546,19 @@
         <v>70397</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>53091</v>
+        <v>55127</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>88501</v>
+        <v>88957</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05519241002712438</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04162381924548766</v>
+        <v>0.04322071569750126</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06938617586099047</v>
+        <v>0.06974320603654068</v>
       </c>
     </row>
     <row r="16">
@@ -1697,19 +1697,19 @@
         <v>136855</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>115085</v>
+        <v>116814</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>160995</v>
+        <v>161004</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2030092946194667</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1707153121980974</v>
+        <v>0.1732799045066471</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.238816897712479</v>
+        <v>0.2388312503693519</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>73</v>
@@ -1718,19 +1718,19 @@
         <v>76502</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>61677</v>
+        <v>61180</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>94335</v>
+        <v>94924</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1091083880267836</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08796495821546467</v>
+        <v>0.08725658717851209</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1345426693404178</v>
+        <v>0.1353814860712097</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>198</v>
@@ -1739,19 +1739,19 @@
         <v>213357</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>183180</v>
+        <v>188108</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>240231</v>
+        <v>244726</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1551363471667355</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1331937051645683</v>
+        <v>0.1367767645186313</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1746764163110248</v>
+        <v>0.1779451188386085</v>
       </c>
     </row>
     <row r="19">
@@ -1768,19 +1768,19 @@
         <v>168314</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>145394</v>
+        <v>144513</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>191471</v>
+        <v>193458</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2496739954697919</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.215675178879395</v>
+        <v>0.2143680397924679</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2840254159973575</v>
+        <v>0.2869727022279153</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>161</v>
@@ -1789,19 +1789,19 @@
         <v>177365</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>154997</v>
+        <v>155787</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>203648</v>
+        <v>200009</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2529612208167643</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2210598867093379</v>
+        <v>0.2221859374003914</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2904460063158129</v>
+        <v>0.2852563086154059</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>321</v>
@@ -1810,19 +1810,19 @@
         <v>345679</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>311790</v>
+        <v>312072</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>380881</v>
+        <v>381864</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2513499022529236</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2267086572050227</v>
+        <v>0.2269136483938692</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2769460126904304</v>
+        <v>0.2776611085066074</v>
       </c>
     </row>
     <row r="20">
@@ -1839,19 +1839,19 @@
         <v>223335</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>198316</v>
+        <v>199310</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>246704</v>
+        <v>248761</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3312911192668445</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2941792176803998</v>
+        <v>0.2956535727447527</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.365956931888738</v>
+        <v>0.3690080833250509</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>201</v>
@@ -1860,19 +1860,19 @@
         <v>212186</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>186492</v>
+        <v>189415</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>238179</v>
+        <v>237201</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3026234585441547</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2659776685318359</v>
+        <v>0.2701465333389982</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3396949964852855</v>
+        <v>0.3383001000211271</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>418</v>
@@ -1881,19 +1881,19 @@
         <v>435521</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>399018</v>
+        <v>400952</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>470957</v>
+        <v>472959</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3166756542498433</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2901339786130037</v>
+        <v>0.2915404449270788</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3424423477003008</v>
+        <v>0.3438981914511871</v>
       </c>
     </row>
     <row r="21">
@@ -1910,19 +1910,19 @@
         <v>114200</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>94161</v>
+        <v>94888</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>136176</v>
+        <v>136154</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.169403249390206</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1396765867018679</v>
+        <v>0.1407555081542162</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2020007718725346</v>
+        <v>0.2019690946424396</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>171</v>
@@ -1931,19 +1931,19 @@
         <v>180921</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>156193</v>
+        <v>158982</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>202567</v>
+        <v>204786</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2580330727929405</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2227645564375004</v>
+        <v>0.2267429785174624</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2889048443259825</v>
+        <v>0.2920689460128514</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>280</v>
@@ -1952,19 +1952,19 @@
         <v>295122</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>266332</v>
+        <v>263670</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>327608</v>
+        <v>329515</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2145888714727363</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1936554750775691</v>
+        <v>0.1917198365094784</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2382104507579688</v>
+        <v>0.2395969071944916</v>
       </c>
     </row>
     <row r="22">
@@ -1981,19 +1981,19 @@
         <v>31430</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21676</v>
+        <v>22277</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44332</v>
+        <v>44588</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04662234125369093</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03215325962929397</v>
+        <v>0.03304463780878289</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06576116254984468</v>
+        <v>0.06614089183295263</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -2002,19 +2002,19 @@
         <v>54181</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41477</v>
+        <v>41384</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71699</v>
+        <v>70970</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07727385981935701</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05915574484508581</v>
+        <v>0.05902274874351133</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.102258914081129</v>
+        <v>0.1012190423378677</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>83</v>
@@ -2023,19 +2023,19 @@
         <v>85611</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>68917</v>
+        <v>68654</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>102995</v>
+        <v>104101</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06224922485776134</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05011077743529338</v>
+        <v>0.04991960011154668</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07488948007737634</v>
+        <v>0.07569372003786361</v>
       </c>
     </row>
     <row r="23">
@@ -2174,19 +2174,19 @@
         <v>92219</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70294</v>
+        <v>72845</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>113666</v>
+        <v>111849</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1521422384742592</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1159705257261614</v>
+        <v>0.1201781000128784</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1875250240904797</v>
+        <v>0.1845270321255303</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -2195,19 +2195,19 @@
         <v>69024</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53558</v>
+        <v>53884</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86690</v>
+        <v>88148</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1126057327329745</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08737391205368258</v>
+        <v>0.0879063416588818</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1414252810877362</v>
+        <v>0.1438038320623246</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>137</v>
@@ -2216,19 +2216,19 @@
         <v>161243</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>136514</v>
+        <v>138355</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>187745</v>
+        <v>187491</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1322631782329009</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.111978101598714</v>
+        <v>0.1134885988218304</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1540017398759009</v>
+        <v>0.1537936574591925</v>
       </c>
     </row>
     <row r="26">
@@ -2245,19 +2245,19 @@
         <v>166097</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>142447</v>
+        <v>143767</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>188228</v>
+        <v>192238</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2740253750866128</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2350073675554307</v>
+        <v>0.2371853304836783</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.310537204124775</v>
+        <v>0.3171528962751885</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>126</v>
@@ -2266,19 +2266,19 @@
         <v>146465</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>124394</v>
+        <v>125539</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>172827</v>
+        <v>170852</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2389416615217703</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2029362504445088</v>
+        <v>0.2048034176517581</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2819494664023522</v>
+        <v>0.278727661313795</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>275</v>
@@ -2287,19 +2287,19 @@
         <v>312562</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>282113</v>
+        <v>279109</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>347282</v>
+        <v>343406</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.256385190594593</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2314089414074523</v>
+        <v>0.228945237124918</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2848649035157314</v>
+        <v>0.2816856523028393</v>
       </c>
     </row>
     <row r="27">
@@ -2316,19 +2316,19 @@
         <v>202388</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>180407</v>
+        <v>178343</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>228241</v>
+        <v>227007</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3338970991372999</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2976333005238533</v>
+        <v>0.29422912699641</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3765503804535741</v>
+        <v>0.3745135141445057</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>174</v>
@@ -2337,19 +2337,19 @@
         <v>198679</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>174329</v>
+        <v>173579</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>224065</v>
+        <v>224981</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.324124115826729</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2843990155410352</v>
+        <v>0.2831756247400323</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3655386121745806</v>
+        <v>0.3670326376099702</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>363</v>
@@ -2358,19 +2358,19 @@
         <v>401067</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>367845</v>
+        <v>365681</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>435065</v>
+        <v>435856</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3289832171356905</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3017321123264908</v>
+        <v>0.2999571694293355</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3568706516779011</v>
+        <v>0.3575201394142736</v>
       </c>
     </row>
     <row r="28">
@@ -2387,19 +2387,19 @@
         <v>117266</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>97635</v>
+        <v>97742</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>139843</v>
+        <v>137867</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1934648505797764</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1610768610309264</v>
+        <v>0.1612543792010039</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2307112423978971</v>
+        <v>0.22745201315044</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>122</v>
@@ -2408,19 +2408,19 @@
         <v>138359</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>117306</v>
+        <v>119140</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>162024</v>
+        <v>161358</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2257177037577918</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1913731294539396</v>
+        <v>0.194364272343975</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2643260395337133</v>
+        <v>0.2632387217265665</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>225</v>
@@ -2429,19 +2429,19 @@
         <v>255625</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>225869</v>
+        <v>225610</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>285317</v>
+        <v>288897</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2096816709401035</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1852738783175975</v>
+        <v>0.1850612616431711</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2340367340914464</v>
+        <v>0.236974050657696</v>
       </c>
     </row>
     <row r="29">
@@ -2458,19 +2458,19 @@
         <v>28167</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18125</v>
+        <v>18257</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>43449</v>
+        <v>40735</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0464704367220516</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02990203341964403</v>
+        <v>0.03012097850149446</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07168164030357901</v>
+        <v>0.06720489210224741</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>53</v>
@@ -2479,19 +2479,19 @@
         <v>60446</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>45192</v>
+        <v>46386</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>75809</v>
+        <v>77901</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09861078616073436</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07372655780772047</v>
+        <v>0.07567447831012412</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1236750405710521</v>
+        <v>0.1270881286050761</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>77</v>
@@ -2500,19 +2500,19 @@
         <v>88613</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>70359</v>
+        <v>70767</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>109198</v>
+        <v>109173</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07268674309671216</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05771304215964436</v>
+        <v>0.05804813101534122</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08957226766361266</v>
+        <v>0.08955124349783924</v>
       </c>
     </row>
     <row r="30">
@@ -2651,19 +2651,19 @@
         <v>55965</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>41799</v>
+        <v>43542</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>71061</v>
+        <v>72036</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1325931524531575</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09902910841632255</v>
+        <v>0.1031584052826042</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1683572229717125</v>
+        <v>0.1706673715654026</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>46</v>
@@ -2672,19 +2672,19 @@
         <v>48143</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37466</v>
+        <v>36965</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>63103</v>
+        <v>62978</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1095627277284897</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08526507318096579</v>
+        <v>0.08412441423631074</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1436096036970117</v>
+        <v>0.1433250523421768</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>97</v>
@@ -2693,19 +2693,19 @@
         <v>104109</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>86378</v>
+        <v>86252</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>125996</v>
+        <v>126617</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1208463507518679</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1002648213052778</v>
+        <v>0.1001189771762696</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1462522265756592</v>
+        <v>0.1469737360262491</v>
       </c>
     </row>
     <row r="33">
@@ -2722,19 +2722,19 @@
         <v>94064</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>79415</v>
+        <v>77548</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>112087</v>
+        <v>112225</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2228565082166777</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1881501752817784</v>
+        <v>0.1837260040515776</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2655571051205864</v>
+        <v>0.265883327956512</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>97</v>
@@ -2743,19 +2743,19 @@
         <v>107485</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>89188</v>
+        <v>89882</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>126916</v>
+        <v>126047</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2446120780664688</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2029728666895979</v>
+        <v>0.20455264981668</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2888336142662221</v>
+        <v>0.2868556100862246</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>185</v>
@@ -2764,19 +2764,19 @@
         <v>201549</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>174002</v>
+        <v>178646</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>224329</v>
+        <v>230869</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2339530627952097</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2019762630850782</v>
+        <v>0.2073669264288865</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2603955293458244</v>
+        <v>0.2679867923041426</v>
       </c>
     </row>
     <row r="34">
@@ -2793,19 +2793,19 @@
         <v>136176</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>115743</v>
+        <v>117049</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>157689</v>
+        <v>156179</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3226266719805019</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.274218366518815</v>
+        <v>0.2773125833883934</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3735955211364019</v>
+        <v>0.3700178182550766</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>130</v>
@@ -2814,19 +2814,19 @@
         <v>142021</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>122081</v>
+        <v>121522</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>163664</v>
+        <v>161334</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3232088894086345</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2778295869251701</v>
+        <v>0.2765574318861478</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3724638335679043</v>
+        <v>0.3671604704635179</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>255</v>
@@ -2835,19 +2835,19 @@
         <v>278197</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>251350</v>
+        <v>249632</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>306247</v>
+        <v>309250</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3229236353564306</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2917599531413738</v>
+        <v>0.2897660345637361</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3554831910620163</v>
+        <v>0.3589686735420106</v>
       </c>
     </row>
     <row r="35">
@@ -2864,19 +2864,19 @@
         <v>106757</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>88446</v>
+        <v>89459</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>126903</v>
+        <v>128046</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2529293189374204</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2095456170553418</v>
+        <v>0.2119453746083285</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3006590766519319</v>
+        <v>0.3033666475979452</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>100</v>
@@ -2885,19 +2885,19 @@
         <v>114950</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>96392</v>
+        <v>96011</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>133865</v>
+        <v>135977</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2616015843287356</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2193663940748958</v>
+        <v>0.2185001649169316</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.304647591959581</v>
+        <v>0.3094545069568543</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>194</v>
@@ -2906,19 +2906,19 @@
         <v>221708</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>198447</v>
+        <v>194321</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>253154</v>
+        <v>249921</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2573526581971442</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2303513401184835</v>
+        <v>0.2255623341403078</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2938541089464008</v>
+        <v>0.2901020754509108</v>
       </c>
     </row>
     <row r="36">
@@ -2935,19 +2935,19 @@
         <v>29121</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>19172</v>
+        <v>19631</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>41377</v>
+        <v>40548</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06899434841224245</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04542135915449248</v>
+        <v>0.04651037355342581</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09803113711232433</v>
+        <v>0.09606522960858663</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>26</v>
@@ -2956,19 +2956,19 @@
         <v>26810</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>17167</v>
+        <v>19087</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>36912</v>
+        <v>39564</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06101472046767142</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03906749475254696</v>
+        <v>0.04343739226681725</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08400329661820161</v>
+        <v>0.09003842814659049</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>54</v>
@@ -2977,19 +2977,19 @@
         <v>55932</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>43228</v>
+        <v>43544</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>71222</v>
+        <v>71901</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06492429289934756</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0501783938948622</v>
+        <v>0.05054524925482479</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.08267247363718494</v>
+        <v>0.0834609921788009</v>
       </c>
     </row>
     <row r="37">
@@ -3128,19 +3128,19 @@
         <v>35742</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>25395</v>
+        <v>25078</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>49486</v>
+        <v>49499</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1165023526421035</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.08277775163126147</v>
+        <v>0.08174426114433955</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1613013169875459</v>
+        <v>0.1613430650593196</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>24</v>
@@ -3149,19 +3149,19 @@
         <v>24963</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>16630</v>
+        <v>16290</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>36588</v>
+        <v>35779</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.07130272410913417</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.04750078694874937</v>
+        <v>0.04652854519438426</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1045074395268667</v>
+        <v>0.1021957761067986</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>56</v>
@@ -3170,19 +3170,19 @@
         <v>60705</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>46054</v>
+        <v>46497</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>77866</v>
+        <v>78041</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.09241249202616014</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0701089119129875</v>
+        <v>0.07078379409989703</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1185368360285162</v>
+        <v>0.1188029929914149</v>
       </c>
     </row>
     <row r="40">
@@ -3199,19 +3199,19 @@
         <v>61933</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>46606</v>
+        <v>46557</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>77017</v>
+        <v>78668</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2018744910368065</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1519156123220162</v>
+        <v>0.1517558796698051</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2510420182933577</v>
+        <v>0.2564208812753112</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>62</v>
@@ -3220,19 +3220,19 @@
         <v>64213</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>49970</v>
+        <v>51780</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>78238</v>
+        <v>80229</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1834130490383766</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1427314706024718</v>
+        <v>0.1479006092216188</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2234726771573499</v>
+        <v>0.2291603450537286</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>117</v>
@@ -3241,19 +3241,19 @@
         <v>126147</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>108339</v>
+        <v>105674</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>147869</v>
+        <v>148507</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1920351720214499</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1649260466344149</v>
+        <v>0.1608695187643958</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2251042818656203</v>
+        <v>0.2260747114931421</v>
       </c>
     </row>
     <row r="41">
@@ -3270,19 +3270,19 @@
         <v>109005</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>92058</v>
+        <v>92244</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>128337</v>
+        <v>127838</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3553067672888142</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3000689234723724</v>
+        <v>0.3006725938755771</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4183194011032771</v>
+        <v>0.4166925686363337</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>112</v>
@@ -3291,19 +3291,19 @@
         <v>115438</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>99127</v>
+        <v>97757</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>133982</v>
+        <v>134358</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3297291328074451</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2831394425017934</v>
+        <v>0.2792247419757898</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3826945280737474</v>
+        <v>0.3837684154786666</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>211</v>
@@ -3312,19 +3312,19 @@
         <v>224444</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>201169</v>
+        <v>199415</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>250915</v>
+        <v>250126</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.341674760355565</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3062425617286848</v>
+        <v>0.3035728496876984</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3819717745298965</v>
+        <v>0.380771916322326</v>
       </c>
     </row>
     <row r="42">
@@ -3341,19 +3341,19 @@
         <v>82279</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>66679</v>
+        <v>66944</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>99918</v>
+        <v>99354</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2681920203962343</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2173438222618418</v>
+        <v>0.2182064625208544</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3256863345555304</v>
+        <v>0.3238505898910516</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>113</v>
@@ -3362,19 +3362,19 @@
         <v>115089</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>98115</v>
+        <v>99035</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>131646</v>
+        <v>134498</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3287314268760736</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2802480652185306</v>
+        <v>0.2828750856237799</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.376023483861508</v>
+        <v>0.3841680418872646</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>189</v>
@@ -3383,19 +3383,19 @@
         <v>197368</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>172395</v>
+        <v>172001</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>223337</v>
+        <v>221225</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3004574595426533</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.262439653527534</v>
+        <v>0.2618396998685173</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3399898147508645</v>
+        <v>0.3367742189287061</v>
       </c>
     </row>
     <row r="43">
@@ -3412,19 +3412,19 @@
         <v>17832</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>10897</v>
+        <v>10664</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>29015</v>
+        <v>27829</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05812436863604142</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03552083831191057</v>
+        <v>0.03476057416791442</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.09457680181104632</v>
+        <v>0.09071070924190239</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>29</v>
@@ -3433,19 +3433,19 @@
         <v>30397</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>20969</v>
+        <v>20935</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>42048</v>
+        <v>42037</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.08682366716897043</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05989486088835075</v>
+        <v>0.05979576585080417</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1201022240003032</v>
+        <v>0.1200711923724863</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>46</v>
@@ -3454,19 +3454,19 @@
         <v>48229</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>34935</v>
+        <v>36232</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>62047</v>
+        <v>63184</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07342011605417158</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.05318265243484121</v>
+        <v>0.05515643608517753</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.09445458592204614</v>
+        <v>0.09618651867209548</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>25310</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>17080</v>
+        <v>17131</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>37038</v>
+        <v>36719</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1016375693324933</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.06858844089055265</v>
+        <v>0.06879342770394695</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1487336177317066</v>
+        <v>0.1474515380491025</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>19</v>
@@ -3626,19 +3626,19 @@
         <v>21491</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>13148</v>
+        <v>13679</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>32186</v>
+        <v>33159</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.05586816306943778</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03417857367537795</v>
+        <v>0.03555933054900416</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.08366982891158023</v>
+        <v>0.08619815305889419</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>43</v>
@@ -3647,19 +3647,19 @@
         <v>46801</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>34990</v>
+        <v>34870</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>61619</v>
+        <v>61530</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.07385392087488547</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.05521450798803194</v>
+        <v>0.05502629993083268</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.0972369572771781</v>
+        <v>0.0970957837326622</v>
       </c>
     </row>
     <row r="47">
@@ -3676,19 +3676,19 @@
         <v>41287</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>29249</v>
+        <v>29688</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>55135</v>
+        <v>55258</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1657984416742243</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1174539167642355</v>
+        <v>0.1192192307088217</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2214068173531253</v>
+        <v>0.2218985794298099</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>56</v>
@@ -3697,19 +3697,19 @@
         <v>61305</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>48918</v>
+        <v>48277</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>78033</v>
+        <v>77669</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1593658059831878</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1271662949842471</v>
+        <v>0.1255002910386315</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2028516875213931</v>
+        <v>0.2019059869494925</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>92</v>
@@ -3718,19 +3718,19 @@
         <v>102592</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>84281</v>
+        <v>83777</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>123429</v>
+        <v>123615</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1618936042885604</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1329977988756353</v>
+        <v>0.1322031013443495</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1947739054348388</v>
+        <v>0.1950679260162428</v>
       </c>
     </row>
     <row r="48">
@@ -3747,19 +3747,19 @@
         <v>77937</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>63694</v>
+        <v>63164</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>95595</v>
+        <v>94679</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3129734571686486</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2557772693913546</v>
+        <v>0.2536490759075264</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3838800693902347</v>
+        <v>0.3802052044671211</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>113</v>
@@ -3768,19 +3768,19 @@
         <v>126189</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>105637</v>
+        <v>107901</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>144294</v>
+        <v>145822</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3280378881895062</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2746109526591966</v>
+        <v>0.280495357777567</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3751021160323047</v>
+        <v>0.3790732065928151</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>181</v>
@@ -3789,19 +3789,19 @@
         <v>204127</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>178890</v>
+        <v>181476</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>229842</v>
+        <v>229080</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3221180996246124</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2822936668702751</v>
+        <v>0.286374850459662</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3626967518966029</v>
+        <v>0.3614947959172303</v>
       </c>
     </row>
     <row r="49">
@@ -3818,19 +3818,19 @@
         <v>84668</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>68080</v>
+        <v>70086</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>100178</v>
+        <v>100975</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3400012085297873</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2733908037464729</v>
+        <v>0.2814461866030517</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4022854201131144</v>
+        <v>0.4054880469225056</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>123</v>
@@ -3839,19 +3839,19 @@
         <v>136149</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>117739</v>
+        <v>118166</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>157234</v>
+        <v>156011</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3539298806684789</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3060700514634845</v>
+        <v>0.3071811883940177</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4087404573708408</v>
+        <v>0.4055602826812688</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>197</v>
@@ -3860,19 +3860,19 @@
         <v>220818</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>195411</v>
+        <v>193886</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>244946</v>
+        <v>245119</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3484564051726823</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.308363420762212</v>
+        <v>0.3059580476847827</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.386531762272388</v>
+        <v>0.3868051469301929</v>
       </c>
     </row>
     <row r="50">
@@ -3889,19 +3889,19 @@
         <v>19819</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>12177</v>
+        <v>11944</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>30054</v>
+        <v>30162</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.07958932329484636</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.04890107735231962</v>
+        <v>0.04796551564083851</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1206873652119965</v>
+        <v>0.1211230642284187</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>35</v>
@@ -3910,19 +3910,19 @@
         <v>39544</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>27674</v>
+        <v>28052</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>52906</v>
+        <v>52405</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1027982620893894</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0719413250290511</v>
+        <v>0.07292378487631559</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.137533646081034</v>
+        <v>0.1362299311136642</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>54</v>
@@ -3931,19 +3931,19 @@
         <v>59364</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>46077</v>
+        <v>45287</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>76210</v>
+        <v>74211</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.0936779700392595</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.07271098403931785</v>
+        <v>0.07146375465377479</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1202611142278111</v>
+        <v>0.1171076603231541</v>
       </c>
     </row>
     <row r="51">
@@ -4082,19 +4082,19 @@
         <v>537251</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>494692</v>
+        <v>494948</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>582514</v>
+        <v>584352</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.158947202226242</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1463560715101044</v>
+        <v>0.146431948030753</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1723386311402862</v>
+        <v>0.172882274424454</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>351</v>
@@ -4103,19 +4103,19 @@
         <v>371979</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>334006</v>
+        <v>333986</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>408100</v>
+        <v>407212</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1059263045517067</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.09511302322153523</v>
+        <v>0.09510717344498623</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1162121899808175</v>
+        <v>0.1159594880002102</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>848</v>
@@ -4124,19 +4124,19 @@
         <v>909230</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>848144</v>
+        <v>853747</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>966995</v>
+        <v>967294</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1319304417237608</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.12306677905385</v>
+        <v>0.1238797972915037</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1403122689581256</v>
+        <v>0.1403556576667644</v>
       </c>
     </row>
     <row r="54">
@@ -4153,19 +4153,19 @@
         <v>866757</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>810720</v>
+        <v>818497</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>919229</v>
+        <v>924823</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2564327192219166</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2398539275116412</v>
+        <v>0.2421547332952197</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2719567693086262</v>
+        <v>0.2736116493569264</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>728</v>
@@ -4174,19 +4174,19 @@
         <v>791174</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>741868</v>
+        <v>737560</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>841119</v>
+        <v>841027</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2252980022370022</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2112574811341335</v>
+        <v>0.2100304777503618</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2395203325459958</v>
+        <v>0.2394942516665229</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1535</v>
@@ -4195,19 +4195,19 @@
         <v>1657931</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1587420</v>
+        <v>1587070</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1732116</v>
+        <v>1735466</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2405680464421882</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2303367325545499</v>
+        <v>0.2302860265586301</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2513323410272483</v>
+        <v>0.2518183924157907</v>
       </c>
     </row>
     <row r="55">
@@ -4224,19 +4224,19 @@
         <v>1112049</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1054304</v>
+        <v>1054979</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1168246</v>
+        <v>1170394</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.3290030126197054</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.3119190771513012</v>
+        <v>0.3121187019963918</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3456292243490949</v>
+        <v>0.3462645650264521</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1038</v>
@@ -4245,19 +4245,19 @@
         <v>1119042</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1062820</v>
+        <v>1068463</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1176664</v>
+        <v>1178164</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.3186630414444293</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.3026529354389725</v>
+        <v>0.304259899086146</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3350715690763477</v>
+        <v>0.3354988538032486</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2091</v>
@@ -4266,19 +4266,19 @@
         <v>2231091</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>2154295</v>
+        <v>2149216</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>2306161</v>
+        <v>2316288</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.3237342876999619</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.3125911647083237</v>
+        <v>0.3118541947987289</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.3346270601192095</v>
+        <v>0.3360964838603848</v>
       </c>
     </row>
     <row r="56">
@@ -4295,19 +4295,19 @@
         <v>687479</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>636006</v>
+        <v>636354</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>738433</v>
+        <v>732492</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2033927629168089</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1881642888784927</v>
+        <v>0.1882672378132311</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2184677027529743</v>
+        <v>0.2167098706589298</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>869</v>
@@ -4316,19 +4316,19 @@
         <v>937897</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>889225</v>
+        <v>882847</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>998593</v>
+        <v>988769</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2670792777780612</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2532193236051699</v>
+        <v>0.2514029986009854</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2843633988160376</v>
+        <v>0.2815658924203547</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1504</v>
@@ -4337,19 +4337,19 @@
         <v>1625376</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1557148</v>
+        <v>1548502</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1704505</v>
+        <v>1694899</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2358441810313409</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2259442014269166</v>
+        <v>0.2246896472654762</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2473259134583351</v>
+        <v>0.2459320825917331</v>
       </c>
     </row>
     <row r="57">
@@ -4366,19 +4366,19 @@
         <v>176521</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>151276</v>
+        <v>149831</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>202816</v>
+        <v>202618</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.05222430301532718</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.04475532972958072</v>
+        <v>0.04432800786592118</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.06000369963246507</v>
+        <v>0.05994513251287027</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>268</v>
@@ -4387,19 +4387,19 @@
         <v>291587</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>257140</v>
+        <v>255025</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>323962</v>
+        <v>325748</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.08303337398880065</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.07322435090732493</v>
+        <v>0.07262199990070504</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.09225281248516666</v>
+        <v>0.09276135152885417</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>439</v>
@@ -4408,19 +4408,19 @@
         <v>468108</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>426879</v>
+        <v>424425</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>506817</v>
+        <v>513885</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.06792304310274826</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.06194078576341164</v>
+        <v>0.06158470865696644</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.07353984008795836</v>
+        <v>0.07456535601024186</v>
       </c>
     </row>
     <row r="58">
@@ -4802,19 +4802,19 @@
         <v>77140</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62129</v>
+        <v>62334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>95339</v>
+        <v>95692</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1884352107763692</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1517675224761333</v>
+        <v>0.1522670847410531</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.23289149543412</v>
+        <v>0.2337522702060006</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -4823,19 +4823,19 @@
         <v>47631</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36664</v>
+        <v>36668</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60842</v>
+        <v>60796</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1227022962789352</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09445133003497339</v>
+        <v>0.09445986822906448</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1567353726147902</v>
+        <v>0.1566180179570578</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -4844,19 +4844,19 @@
         <v>124771</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>105687</v>
+        <v>106253</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>146741</v>
+        <v>146168</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1564419113205532</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1325139045180906</v>
+        <v>0.1332233660234898</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1839888177538992</v>
+        <v>0.1832698201491073</v>
       </c>
     </row>
     <row r="5">
@@ -4873,19 +4873,19 @@
         <v>122758</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103743</v>
+        <v>104588</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>140382</v>
+        <v>143625</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2998702611385359</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2534191090859267</v>
+        <v>0.2554840255530951</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3429214009264983</v>
+        <v>0.3508414098026795</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>106</v>
@@ -4894,19 +4894,19 @@
         <v>103450</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86482</v>
+        <v>87672</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>121165</v>
+        <v>120762</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2664975604425517</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2227872351587638</v>
+        <v>0.2258516325787814</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3121333780443095</v>
+        <v>0.3110956291783973</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>223</v>
@@ -4915,19 +4915,19 @@
         <v>226208</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>201170</v>
+        <v>200118</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>251181</v>
+        <v>250492</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2836272143304163</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2522329715665945</v>
+        <v>0.2509146134479273</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3149386345327811</v>
+        <v>0.3140750293216965</v>
       </c>
     </row>
     <row r="6">
@@ -4944,19 +4944,19 @@
         <v>145838</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>127223</v>
+        <v>126396</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>166894</v>
+        <v>165693</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3562470636724652</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3107748695847417</v>
+        <v>0.3087564217850785</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.407682042856251</v>
+        <v>0.4047500568695079</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>146</v>
@@ -4965,19 +4965,19 @@
         <v>144053</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>124489</v>
+        <v>126620</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>164700</v>
+        <v>163692</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3710947150963764</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3206961611971182</v>
+        <v>0.3261851812489184</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4242834303656245</v>
+        <v>0.4216877493963351</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>284</v>
@@ -4986,19 +4986,19 @@
         <v>289890</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>264205</v>
+        <v>263200</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>318003</v>
+        <v>317734</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3634736618212405</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.331268232820738</v>
+        <v>0.3300090373624267</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3987222061049929</v>
+        <v>0.3983856792536632</v>
       </c>
     </row>
     <row r="7">
@@ -5015,19 +5015,19 @@
         <v>57122</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43428</v>
+        <v>43502</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71575</v>
+        <v>71809</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1395346786601335</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1060849528467611</v>
+        <v>0.1062658452399665</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1748406856237077</v>
+        <v>0.1754133759973753</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -5036,19 +5036,19 @@
         <v>76851</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61453</v>
+        <v>62179</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91828</v>
+        <v>91342</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1979773956034723</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1583104089751764</v>
+        <v>0.1601789537435664</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2365595261976124</v>
+        <v>0.235306168820513</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>132</v>
@@ -5057,19 +5057,19 @@
         <v>133973</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>112967</v>
+        <v>114402</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>155322</v>
+        <v>157609</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1679797180817876</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1416415875218909</v>
+        <v>0.1434412357932269</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.194747948895863</v>
+        <v>0.1976150337910217</v>
       </c>
     </row>
     <row r="8">
@@ -5086,19 +5086,19 @@
         <v>6514</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2954</v>
+        <v>2439</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14321</v>
+        <v>14139</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01591278575249622</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007215179472272897</v>
+        <v>0.005958930078167285</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0349822492754114</v>
+        <v>0.03453838018082981</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -5107,19 +5107,19 @@
         <v>16198</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9888</v>
+        <v>9593</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24992</v>
+        <v>26047</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04172803257866437</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0254714702576228</v>
+        <v>0.02471262415132613</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0643826785595891</v>
+        <v>0.06709937584219611</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -5128,19 +5128,19 @@
         <v>22712</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14736</v>
+        <v>14599</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33723</v>
+        <v>34780</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02847749444600232</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01847657864109222</v>
+        <v>0.01830449248801214</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04228275662918895</v>
+        <v>0.04360801802138481</v>
       </c>
     </row>
     <row r="9">
@@ -5279,19 +5279,19 @@
         <v>134435</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>114446</v>
+        <v>115398</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>155443</v>
+        <v>155345</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2311538387038886</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1967843662171181</v>
+        <v>0.1984196794090663</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2672764485515873</v>
+        <v>0.2671066385311413</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>84</v>
@@ -5300,19 +5300,19 @@
         <v>82316</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>68001</v>
+        <v>67133</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>98700</v>
+        <v>100193</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1488210766631377</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1229408294933721</v>
+        <v>0.1213713248569883</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.178442993299416</v>
+        <v>0.181141170034218</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>209</v>
@@ -5321,19 +5321,19 @@
         <v>216751</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>191525</v>
+        <v>190606</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>245030</v>
+        <v>244016</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1910201320876941</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1687891966670944</v>
+        <v>0.1679792561344403</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2159423644536641</v>
+        <v>0.2150487265512066</v>
       </c>
     </row>
     <row r="12">
@@ -5350,19 +5350,19 @@
         <v>171131</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>151332</v>
+        <v>149358</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>195227</v>
+        <v>194086</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2942502376538672</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2602067062808954</v>
+        <v>0.2568129155970676</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3356824628894611</v>
+        <v>0.3337207420298558</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>171</v>
@@ -5371,19 +5371,19 @@
         <v>168580</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>146832</v>
+        <v>145783</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>188823</v>
+        <v>189745</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3047807693639075</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.265461010552243</v>
+        <v>0.2635658992897064</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.341378258444167</v>
+        <v>0.3430446596043107</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>337</v>
@@ -5392,19 +5392,19 @@
         <v>339711</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>313373</v>
+        <v>311158</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>376140</v>
+        <v>372245</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2993834223022106</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2761719995841714</v>
+        <v>0.2742206382796271</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3314885803567411</v>
+        <v>0.3280555203720202</v>
       </c>
     </row>
     <row r="13">
@@ -5421,19 +5421,19 @@
         <v>178048</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>156305</v>
+        <v>156056</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>199275</v>
+        <v>201273</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3061430754142972</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2687584972139664</v>
+        <v>0.2683290388538013</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3426425616671869</v>
+        <v>0.3460774167976033</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>197</v>
@@ -5442,19 +5442,19 @@
         <v>189983</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>168332</v>
+        <v>169038</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>216196</v>
+        <v>210687</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3434757151613519</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3043315047673125</v>
+        <v>0.3056085787952196</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3908679011211227</v>
+        <v>0.3809071753899604</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>371</v>
@@ -5463,19 +5463,19 @@
         <v>368030</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>337693</v>
+        <v>336703</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>398213</v>
+        <v>397376</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3243411435183988</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2976048683471226</v>
+        <v>0.2967329084654639</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3509407187663477</v>
+        <v>0.3502028812286288</v>
       </c>
     </row>
     <row r="14">
@@ -5492,19 +5492,19 @@
         <v>84757</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68168</v>
+        <v>69004</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>102368</v>
+        <v>103066</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1457356337668514</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1172117795448523</v>
+        <v>0.1186479462978547</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1760169279019097</v>
+        <v>0.1772169239951134</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>96</v>
@@ -5513,19 +5513,19 @@
         <v>92389</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>77309</v>
+        <v>77049</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>109378</v>
+        <v>109994</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.167033415964728</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1397689026316158</v>
+        <v>0.1392989778658955</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.197747489982939</v>
+        <v>0.1988608407760034</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>176</v>
@@ -5534,19 +5534,19 @@
         <v>177147</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>155339</v>
+        <v>150575</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>200798</v>
+        <v>200981</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1561173933619215</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1368987496632928</v>
+        <v>0.1326998709807092</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1769614728182567</v>
+        <v>0.1771221188932413</v>
       </c>
     </row>
     <row r="15">
@@ -5563,19 +5563,19 @@
         <v>13212</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7480</v>
+        <v>7088</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>22616</v>
+        <v>21952</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02271721446109558</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.012862142890212</v>
+        <v>0.01218688354121793</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03888695476578802</v>
+        <v>0.03774473378967422</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>20</v>
@@ -5584,19 +5584,19 @@
         <v>19851</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>12632</v>
+        <v>12134</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>30042</v>
+        <v>30872</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03588902284687494</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02283747806425398</v>
+        <v>0.02193732782848344</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05431367462728232</v>
+        <v>0.05581408202107002</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>33</v>
@@ -5605,19 +5605,19 @@
         <v>33063</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>22992</v>
+        <v>22864</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>46779</v>
+        <v>45769</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02913790872977504</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02026300942782564</v>
+        <v>0.02014939018405651</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04122588660430528</v>
+        <v>0.0403358591099136</v>
       </c>
     </row>
     <row r="16">
@@ -5756,19 +5756,19 @@
         <v>129700</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>108987</v>
+        <v>110269</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>153119</v>
+        <v>150925</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1984669879720226</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.16677265981078</v>
+        <v>0.1687336666235183</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2343040620416184</v>
+        <v>0.2309457234281621</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>98</v>
@@ -5777,19 +5777,19 @@
         <v>98856</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>82575</v>
+        <v>83600</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>117333</v>
+        <v>117793</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1510972678507249</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1262123651197603</v>
+        <v>0.1277793136472917</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1793390530823568</v>
+        <v>0.1800423011676359</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>218</v>
@@ -5798,19 +5798,19 @@
         <v>228555</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>201937</v>
+        <v>202426</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>256658</v>
+        <v>254823</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1747686321514179</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.154414427425564</v>
+        <v>0.1547885254876283</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1962582214694322</v>
+        <v>0.1948550528215226</v>
       </c>
     </row>
     <row r="19">
@@ -5827,19 +5827,19 @@
         <v>182874</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>160838</v>
+        <v>161126</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>207710</v>
+        <v>209426</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2798346698735608</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2461151147379915</v>
+        <v>0.2465559584428099</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3178388781728712</v>
+        <v>0.320464812754446</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>203</v>
@@ -5848,19 +5848,19 @@
         <v>206226</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>183415</v>
+        <v>181520</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>230855</v>
+        <v>229121</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3152090597535896</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2803436986326603</v>
+        <v>0.2774468318788013</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3528531136771853</v>
+        <v>0.3502022386636978</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>379</v>
@@ -5869,19 +5869,19 @@
         <v>389100</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>353812</v>
+        <v>357578</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>419595</v>
+        <v>422337</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.297531943071863</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2705479487065029</v>
+        <v>0.2734281825905195</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3208500269300133</v>
+        <v>0.3229467837122361</v>
       </c>
     </row>
     <row r="20">
@@ -5898,19 +5898,19 @@
         <v>219276</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>196318</v>
+        <v>194078</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244294</v>
+        <v>244235</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3355371962968183</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3004069944175065</v>
+        <v>0.2969791652063561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3738194146585541</v>
+        <v>0.37372923306986</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>224</v>
@@ -5919,19 +5919,19 @@
         <v>220306</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>195582</v>
+        <v>196635</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>240781</v>
+        <v>242546</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3367301959918323</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2989400746662693</v>
+        <v>0.300549085487754</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3680256025483029</v>
+        <v>0.3707228616004209</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>436</v>
@@ -5940,19 +5940,19 @@
         <v>439582</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>407636</v>
+        <v>407703</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>474296</v>
+        <v>476720</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3361340360331292</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3117060606818918</v>
+        <v>0.3117573222659612</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3626785042473031</v>
+        <v>0.3645317928364684</v>
       </c>
     </row>
     <row r="21">
@@ -5969,19 +5969,19 @@
         <v>100874</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>82612</v>
+        <v>84417</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>119856</v>
+        <v>119946</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1543574601525153</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1264131947128497</v>
+        <v>0.1291747403123444</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1834037357515916</v>
+        <v>0.1835426263416629</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>108</v>
@@ -5990,19 +5990,19 @@
         <v>104840</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>88701</v>
+        <v>86858</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>124370</v>
+        <v>123579</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1602434986919009</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1355756422030634</v>
+        <v>0.1327591485274449</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1900947925227167</v>
+        <v>0.1888865068406018</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>203</v>
@@ -6011,19 +6011,19 @@
         <v>205713</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>180043</v>
+        <v>181969</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>231846</v>
+        <v>231364</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1573021563703305</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1376728376376649</v>
+        <v>0.1391459553800515</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1772848324420942</v>
+        <v>0.176916536658979</v>
       </c>
     </row>
     <row r="22">
@@ -6040,19 +6040,19 @@
         <v>20784</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13324</v>
+        <v>13098</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30179</v>
+        <v>31032</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03180368570508313</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02038809784945564</v>
+        <v>0.02004242957911266</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04618069957580608</v>
+        <v>0.04748609347916018</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -6061,19 +6061,19 @@
         <v>24024</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15743</v>
+        <v>15887</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35118</v>
+        <v>34319</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0367199777119522</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02406262557609375</v>
+        <v>0.02428213525128543</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0536772342038136</v>
+        <v>0.05245471237724147</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>46</v>
@@ -6082,19 +6082,19 @@
         <v>44808</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>33689</v>
+        <v>33687</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>59969</v>
+        <v>58381</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03426323237325936</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02576099616454017</v>
+        <v>0.02575928224331523</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04585655215077625</v>
+        <v>0.04464238622417268</v>
       </c>
     </row>
     <row r="23">
@@ -6233,19 +6233,19 @@
         <v>106451</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>86297</v>
+        <v>88985</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>126981</v>
+        <v>127249</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1681082698112818</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.136280703283688</v>
+        <v>0.1405250503625152</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2005297262883335</v>
+        <v>0.2009532061606265</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -6254,19 +6254,19 @@
         <v>80589</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>64856</v>
+        <v>65184</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>100254</v>
+        <v>99370</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1267285699794</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1019881506577394</v>
+        <v>0.1025039003687011</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1576521340541635</v>
+        <v>0.1562621302021974</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>169</v>
@@ -6275,19 +6275,19 @@
         <v>187040</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>162420</v>
+        <v>161758</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>213489</v>
+        <v>215428</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1473745274739061</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1279751755036965</v>
+        <v>0.127453444602757</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1682144037709218</v>
+        <v>0.1697421823586673</v>
       </c>
     </row>
     <row r="26">
@@ -6304,19 +6304,19 @@
         <v>173042</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>148892</v>
+        <v>151854</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>195761</v>
+        <v>198963</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2732691677881467</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2351310335302041</v>
+        <v>0.2398095894766917</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3091475466730634</v>
+        <v>0.3142032225112168</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>162</v>
@@ -6325,19 +6325,19 @@
         <v>173951</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>150890</v>
+        <v>153632</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>197786</v>
+        <v>196070</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.273541353837601</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2372782997387441</v>
+        <v>0.2415894485649882</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3110223398554044</v>
+        <v>0.3083245220113102</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>318</v>
@@ -6346,19 +6346,19 @@
         <v>346993</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>315647</v>
+        <v>314901</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>383023</v>
+        <v>378032</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2734055495270221</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.248707290846736</v>
+        <v>0.2481199825682824</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3017945541583185</v>
+        <v>0.2978625137938994</v>
       </c>
     </row>
     <row r="27">
@@ -6375,19 +6375,19 @@
         <v>231536</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>208396</v>
+        <v>203922</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>257986</v>
+        <v>257458</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3656441396423993</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3291011910213845</v>
+        <v>0.3220356984247433</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4074134587565544</v>
+        <v>0.4065790005159861</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>239</v>
@@ -6396,19 +6396,19 @@
         <v>257180</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>230976</v>
+        <v>234653</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>281453</v>
+        <v>283402</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4044217493287374</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3632148386857548</v>
+        <v>0.3689967743281819</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4425908940613027</v>
+        <v>0.4456552082127808</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>446</v>
@@ -6417,19 +6417,19 @@
         <v>488717</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>450488</v>
+        <v>456378</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>523875</v>
+        <v>526220</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3850740768087487</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3549526339119944</v>
+        <v>0.3595933123182051</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4127766579514613</v>
+        <v>0.4146236275520683</v>
       </c>
     </row>
     <row r="28">
@@ -6446,19 +6446,19 @@
         <v>95947</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>77130</v>
+        <v>79185</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>115914</v>
+        <v>115766</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1515207787562906</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1218037049653306</v>
+        <v>0.1250500120212935</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1830529018392837</v>
+        <v>0.1828183496095952</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>98</v>
@@ -6467,19 +6467,19 @@
         <v>105428</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>87219</v>
+        <v>89165</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>126174</v>
+        <v>125168</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1657885762738452</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1371541570984233</v>
+        <v>0.1402137888500614</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1984117467505715</v>
+        <v>0.196829587695168</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>186</v>
@@ -6488,19 +6488,19 @@
         <v>201376</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>173684</v>
+        <v>175123</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>229684</v>
+        <v>227223</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1586698117036708</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1368510205046166</v>
+        <v>0.1379847263578653</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1809749449363521</v>
+        <v>0.1790354199546694</v>
       </c>
     </row>
     <row r="29">
@@ -6517,19 +6517,19 @@
         <v>26252</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17474</v>
+        <v>16451</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>38029</v>
+        <v>37543</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04145764400188164</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02759540977990129</v>
+        <v>0.0259790026993997</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06005567080659859</v>
+        <v>0.05928825573605973</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>18</v>
@@ -6538,19 +6538,19 @@
         <v>18772</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11629</v>
+        <v>11954</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30044</v>
+        <v>29087</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02951975058041633</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01828680235116301</v>
+        <v>0.01879798374811443</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04724472675558903</v>
+        <v>0.04574018656772187</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>42</v>
@@ -6559,19 +6559,19 @@
         <v>45024</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33544</v>
+        <v>33993</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>59114</v>
+        <v>61048</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03547603448665238</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02643056085039718</v>
+        <v>0.02678433315156676</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04657748371500074</v>
+        <v>0.04810162215364473</v>
       </c>
     </row>
     <row r="30">
@@ -6710,19 +6710,19 @@
         <v>65828</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>52039</v>
+        <v>50589</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>82718</v>
+        <v>82454</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1396280872105078</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1103812106457303</v>
+        <v>0.1073054181875868</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1754547431392912</v>
+        <v>0.1748939374550779</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>45</v>
@@ -6731,19 +6731,19 @@
         <v>53302</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>38821</v>
+        <v>39287</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>69918</v>
+        <v>72274</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1081901406811293</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07879741300830279</v>
+        <v>0.0797440345476667</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1419160063177424</v>
+        <v>0.1466978776261391</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>103</v>
@@ -6752,19 +6752,19 @@
         <v>119130</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>99199</v>
+        <v>99497</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>140013</v>
+        <v>143166</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1235631709507686</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1028909245538519</v>
+        <v>0.1032002019072742</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1452230466575803</v>
+        <v>0.1484934510031731</v>
       </c>
     </row>
     <row r="33">
@@ -6781,19 +6781,19 @@
         <v>127619</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>108295</v>
+        <v>108206</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>149910</v>
+        <v>149309</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2706934163498771</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2297059531323985</v>
+        <v>0.229517037993353</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3179752867241969</v>
+        <v>0.3167002633021289</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>124</v>
@@ -6802,19 +6802,19 @@
         <v>141955</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>122249</v>
+        <v>125381</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>164736</v>
+        <v>165776</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2881338926806367</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2481348883311985</v>
+        <v>0.2544926015160837</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3343744121215805</v>
+        <v>0.3364855728300396</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>236</v>
@@ -6823,19 +6823,19 @@
         <v>269574</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>240046</v>
+        <v>241082</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>300085</v>
+        <v>300246</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2796055694232908</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2489792977445915</v>
+        <v>0.2500541060733713</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3112528145930198</v>
+        <v>0.3114189729210584</v>
       </c>
     </row>
     <row r="34">
@@ -6852,19 +6852,19 @@
         <v>164206</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>141883</v>
+        <v>143557</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>185257</v>
+        <v>184634</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3482986891875995</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3009500371725127</v>
+        <v>0.304499754274729</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3929504082033204</v>
+        <v>0.3916278993488609</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>154</v>
@@ -6873,19 +6873,19 @@
         <v>174213</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>150607</v>
+        <v>153901</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>195407</v>
+        <v>196811</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3536097203411772</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3056956522777416</v>
+        <v>0.312380652928988</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3966285941280527</v>
+        <v>0.3994792559913382</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>303</v>
@@ -6894,19 +6894,19 @@
         <v>338419</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>306315</v>
+        <v>308841</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>367720</v>
+        <v>374286</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3510126473227264</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3177141767697697</v>
+        <v>0.3203343007546719</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3814045619627459</v>
+        <v>0.3882144596336415</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>97594</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>79581</v>
+        <v>80634</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>117268</v>
+        <v>117082</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2070072704168978</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1687996949449877</v>
+        <v>0.1710328144358745</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2487385428498854</v>
+        <v>0.2483441587207341</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>79</v>
@@ -6944,19 +6944,19 @@
         <v>91444</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>75300</v>
+        <v>72931</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>111618</v>
+        <v>111382</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1856086875608067</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1528396718438197</v>
+        <v>0.1480323048011271</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2265580455725738</v>
+        <v>0.2260783370104916</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>164</v>
@@ -6965,19 +6965,19 @@
         <v>189038</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>163339</v>
+        <v>161868</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>215209</v>
+        <v>215657</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1960725090978356</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1694177522180265</v>
+        <v>0.1678922384371218</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2232175341866532</v>
+        <v>0.2236825851956816</v>
       </c>
     </row>
     <row r="36">
@@ -6994,19 +6994,19 @@
         <v>16205</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9655</v>
+        <v>8850</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27222</v>
+        <v>25488</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03437253683511768</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02047825704835392</v>
+        <v>0.01877077648570359</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05774066137937536</v>
+        <v>0.05406382357303777</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>27</v>
@@ -7015,19 +7015,19 @@
         <v>31756</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>22205</v>
+        <v>21532</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>46073</v>
+        <v>44170</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06445755873625017</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0450702989196834</v>
+        <v>0.04370528513330545</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09351698061946674</v>
+        <v>0.08965422673909304</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>41</v>
@@ -7036,19 +7036,19 @@
         <v>47961</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>34772</v>
+        <v>35603</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>64515</v>
+        <v>65497</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04974610320537855</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03606636865814059</v>
+        <v>0.03692826858882721</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06691554420962202</v>
+        <v>0.06793398123749789</v>
       </c>
     </row>
     <row r="37">
@@ -7187,19 +7187,19 @@
         <v>31613</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>21201</v>
+        <v>22279</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>43149</v>
+        <v>43998</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.09787681500201134</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.06563923502476489</v>
+        <v>0.06897727770351168</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1335930027414288</v>
+        <v>0.1362191242079357</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>30</v>
@@ -7208,19 +7208,19 @@
         <v>31254</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>21436</v>
+        <v>21663</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>43420</v>
+        <v>42615</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.08488063761869294</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.05821578019346669</v>
+        <v>0.05883253661029536</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1179211385479997</v>
+        <v>0.1157345728822992</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>61</v>
@@ -7229,19 +7229,19 @@
         <v>62867</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>50640</v>
+        <v>48587</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>79273</v>
+        <v>80582</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.09095362932288581</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.07326314200456857</v>
+        <v>0.07029296337609575</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1146893781873699</v>
+        <v>0.1165824085944736</v>
       </c>
     </row>
     <row r="40">
@@ -7258,19 +7258,19 @@
         <v>90905</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>75929</v>
+        <v>74661</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>107679</v>
+        <v>108257</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2814453336225663</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2350806876567467</v>
+        <v>0.2311532104692142</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3333798458264331</v>
+        <v>0.3351680358356066</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>82</v>
@@ -7279,19 +7279,19 @@
         <v>87466</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>70728</v>
+        <v>71598</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>104358</v>
+        <v>103821</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.237544418452986</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.192085728744548</v>
+        <v>0.1944484381528323</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2834192796965413</v>
+        <v>0.2819605335581073</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>172</v>
@@ -7300,19 +7300,19 @@
         <v>178371</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>154455</v>
+        <v>154442</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>202688</v>
+        <v>202585</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2580589040411522</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2234588301824176</v>
+        <v>0.2234405126473187</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2932397839830835</v>
+        <v>0.293091590352883</v>
       </c>
     </row>
     <row r="41">
@@ -7329,19 +7329,19 @@
         <v>116860</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>99573</v>
+        <v>100492</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>132170</v>
+        <v>136104</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3618051802107126</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3082829027068143</v>
+        <v>0.3111286863273854</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.409205193652505</v>
+        <v>0.4213836347498198</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>125</v>
@@ -7350,19 +7350,19 @@
         <v>133086</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>113242</v>
+        <v>114303</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>150681</v>
+        <v>153359</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3614407020370661</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3075468449437566</v>
+        <v>0.3104276949727918</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4092269069557475</v>
+        <v>0.4164998577663913</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>239</v>
@@ -7371,19 +7371,19 @@
         <v>249946</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>225493</v>
+        <v>224919</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>276725</v>
+        <v>274243</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3616110192664812</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3262336864326441</v>
+        <v>0.3254030751487309</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4003532505127426</v>
+        <v>0.3967625027787111</v>
       </c>
     </row>
     <row r="42">
@@ -7400,19 +7400,19 @@
         <v>60531</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>48092</v>
+        <v>46991</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>74890</v>
+        <v>75716</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1874061326567682</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1488958546914627</v>
+        <v>0.1454863564746922</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2318639992336209</v>
+        <v>0.2344219076788147</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>85</v>
@@ -7421,19 +7421,19 @@
         <v>90944</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>75074</v>
+        <v>76171</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>107627</v>
+        <v>108911</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.246988273396548</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2038900037846018</v>
+        <v>0.2068672541361577</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.292298649847483</v>
+        <v>0.2957854434281384</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>144</v>
@@ -7442,19 +7442,19 @@
         <v>151474</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>131532</v>
+        <v>131220</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>173801</v>
+        <v>174710</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2191460982893363</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1902950751098574</v>
+        <v>0.1898432261278939</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2514475572306064</v>
+        <v>0.2527626472153299</v>
       </c>
     </row>
     <row r="43">
@@ -7471,19 +7471,19 @@
         <v>23083</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>15353</v>
+        <v>14855</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>34519</v>
+        <v>34627</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.0714665385079416</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0475351725451774</v>
+        <v>0.04599257132675028</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1068735586086114</v>
+        <v>0.1072081927432373</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>23</v>
@@ -7492,19 +7492,19 @@
         <v>25460</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>16229</v>
+        <v>16464</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>37848</v>
+        <v>37435</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.06914596849470697</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04407627349994278</v>
+        <v>0.04471431178840037</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1027891575129296</v>
+        <v>0.1016664112467213</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>45</v>
@@ -7513,19 +7513,19 @@
         <v>48543</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>35842</v>
+        <v>35618</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>63783</v>
+        <v>63550</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07023034908014449</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0518539818902611</v>
+        <v>0.05153083189594469</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.09227795856822466</v>
+        <v>0.09194112066430489</v>
       </c>
     </row>
     <row r="44">
@@ -7664,19 +7664,19 @@
         <v>19167</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>12967</v>
+        <v>13001</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>28119</v>
+        <v>28165</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0767561483322734</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.05192745399571406</v>
+        <v>0.05206257194304779</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.112605293608842</v>
+        <v>0.1127901474285542</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>20</v>
@@ -7685,19 +7685,19 @@
         <v>26019</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>16841</v>
+        <v>16717</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>39030</v>
+        <v>38183</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06604973422754212</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.04275152070113365</v>
+        <v>0.04243667628483201</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.09907967238292262</v>
+        <v>0.09692911084171556</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>43</v>
@@ -7706,19 +7706,19 @@
         <v>45185</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>33441</v>
+        <v>32990</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>60791</v>
+        <v>61151</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.07020349563428052</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.05195650096836513</v>
+        <v>0.05125533994279805</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.0944496721929238</v>
+        <v>0.09500882199534744</v>
       </c>
     </row>
     <row r="47">
@@ -7735,19 +7735,19 @@
         <v>48799</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>37991</v>
+        <v>37977</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>60629</v>
+        <v>61236</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1954210911314731</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1521405867318082</v>
+        <v>0.1520857660506644</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2427972280591132</v>
+        <v>0.2452293079513353</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>63</v>
@@ -7756,19 +7756,19 @@
         <v>82891</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>66249</v>
+        <v>65777</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>100925</v>
+        <v>103176</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2104234084196088</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1681770766297149</v>
+        <v>0.1669782876111291</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2562038941398312</v>
+        <v>0.2619172318598869</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>120</v>
@@ -7777,19 +7777,19 @@
         <v>131690</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>111477</v>
+        <v>111281</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>152679</v>
+        <v>153902</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2046029678917607</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1731987491774079</v>
+        <v>0.1728946560160399</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2372127229289875</v>
+        <v>0.2391134802490208</v>
       </c>
     </row>
     <row r="48">
@@ -7806,19 +7806,19 @@
         <v>89903</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>76171</v>
+        <v>76964</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>102599</v>
+        <v>103474</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.360028444445284</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3050371760390053</v>
+        <v>0.3082139698370944</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4108704469274244</v>
+        <v>0.4143759937161726</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>100</v>
@@ -7827,19 +7827,19 @@
         <v>133795</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>112763</v>
+        <v>114569</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>156441</v>
+        <v>155979</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3396448764035751</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2862559403500117</v>
+        <v>0.2908406828911818</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3971328398179866</v>
+        <v>0.3959614041480854</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>207</v>
@@ -7848,19 +7848,19 @@
         <v>223698</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>198526</v>
+        <v>198058</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>249338</v>
+        <v>249924</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3475530777336414</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3084448726320245</v>
+        <v>0.3077174191178132</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.387390397254526</v>
+        <v>0.3883006699931374</v>
       </c>
     </row>
     <row r="49">
@@ -7877,19 +7877,19 @@
         <v>66596</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>53904</v>
+        <v>54333</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>81449</v>
+        <v>79419</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2666940785409544</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2158672402809799</v>
+        <v>0.2175851632976491</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3261747708533748</v>
+        <v>0.318043209518832</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>84</v>
@@ -7898,19 +7898,19 @@
         <v>111316</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>91888</v>
+        <v>93067</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>132502</v>
+        <v>133208</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.282581628028768</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2332635342410544</v>
+        <v>0.2362562990366327</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3363627388592824</v>
+        <v>0.3381557294590021</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>160</v>
@@ -7919,19 +7919,19 @@
         <v>177912</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>154255</v>
+        <v>154984</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>200996</v>
+        <v>204222</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2764177444665804</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2396619804207181</v>
+        <v>0.2407939299261327</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3122820457858841</v>
+        <v>0.3172944198420016</v>
       </c>
     </row>
     <row r="50">
@@ -7948,19 +7948,19 @@
         <v>25246</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>18123</v>
+        <v>17380</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>34716</v>
+        <v>35377</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1011002375500152</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.07257704848368417</v>
+        <v>0.06960156404529504</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1390230932526396</v>
+        <v>0.1416701610350586</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>29</v>
@@ -7969,19 +7969,19 @@
         <v>39905</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>26610</v>
+        <v>27528</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>54533</v>
+        <v>55328</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1013003529205059</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.06755110918134102</v>
+        <v>0.06988171808068638</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1384351692840169</v>
+        <v>0.1404521453443483</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>59</v>
@@ -7990,19 +7990,19 @@
         <v>65151</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>48743</v>
+        <v>51120</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>82348</v>
+        <v>84989</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1012227142737369</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.07573033621870821</v>
+        <v>0.07942322904920526</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1279414346468513</v>
+        <v>0.1320448397730178</v>
       </c>
     </row>
     <row r="51">
@@ -8141,19 +8141,19 @@
         <v>564334</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>520828</v>
+        <v>521018</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>609967</v>
+        <v>605312</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1698856846273236</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.15678864129083</v>
+        <v>0.1568459096218694</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1836230438311613</v>
+        <v>0.1822215428455154</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>400</v>
@@ -8162,19 +8162,19 @@
         <v>419966</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>380482</v>
+        <v>385422</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>457265</v>
+        <v>464241</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1204626056502668</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1091369411554088</v>
+        <v>0.1105539455006704</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1311613913251214</v>
+        <v>0.1331624558761346</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>922</v>
@@ -8183,19 +8183,19 @@
         <v>984300</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>927807</v>
+        <v>931307</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1044346</v>
+        <v>1050053</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1445772956582096</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1362793589327944</v>
+        <v>0.1367934846872621</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1533969888283634</v>
+        <v>0.1542352976984603</v>
       </c>
     </row>
     <row r="54">
@@ -8212,19 +8212,19 @@
         <v>917127</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>864026</v>
+        <v>867255</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>967820</v>
+        <v>970212</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2760897529076617</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2601043585879003</v>
+        <v>0.261076416916512</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.291350155667881</v>
+        <v>0.2920702946276259</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>911</v>
@@ -8233,19 +8233,19 @@
         <v>964519</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>912358</v>
+        <v>913133</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1018890</v>
+        <v>1025452</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2766613539654347</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2616996714498617</v>
+        <v>0.2619218810749641</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2922572727340917</v>
+        <v>0.2941392941367342</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1785</v>
@@ -8254,19 +8254,19 @@
         <v>1881646</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1805606</v>
+        <v>1804531</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1956186</v>
+        <v>1952750</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2763824562803511</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2652135031798653</v>
+        <v>0.2650556498601812</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2873311472319582</v>
+        <v>0.286826444677008</v>
       </c>
     </row>
     <row r="55">
@@ -8283,19 +8283,19 @@
         <v>1145667</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1091475</v>
+        <v>1093607</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1202546</v>
+        <v>1202470</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.3448886245431348</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.3285748308129297</v>
+        <v>0.329216736569744</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.362011333717226</v>
+        <v>0.3619885516495358</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1185</v>
@@ -8304,19 +8304,19 @@
         <v>1252616</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1195109</v>
+        <v>1196709</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1317092</v>
+        <v>1313343</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.3592987046479005</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.3428037395454609</v>
+        <v>0.3432624079716562</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3777931473118809</v>
+        <v>0.376717573501618</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2286</v>
@@ -8325,19 +8325,19 @@
         <v>2398282</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>2316895</v>
+        <v>2318870</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>2478824</v>
+        <v>2479753</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.3522676854983781</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.3403132780928617</v>
+        <v>0.3406033586434712</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.3640980535278824</v>
+        <v>0.3642344060388797</v>
       </c>
     </row>
     <row r="56">
@@ -8354,19 +8354,19 @@
         <v>563421</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>519767</v>
+        <v>519112</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>607995</v>
+        <v>606667</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1696108435709389</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.156469436041486</v>
+        <v>0.1562722409155654</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1830293332840805</v>
+        <v>0.1826295580305779</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>629</v>
@@ -8375,19 +8375,19 @@
         <v>673212</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>621883</v>
+        <v>623481</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>721337</v>
+        <v>721873</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1931033009284471</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.178380118818939</v>
+        <v>0.1788384848980518</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2069075457163125</v>
+        <v>0.2070610871373287</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1165</v>
@@ -8396,19 +8396,19 @@
         <v>1236633</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1171898</v>
+        <v>1172165</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1302806</v>
+        <v>1302725</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1816407749501665</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1721323114651069</v>
+        <v>0.1721715061047642</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1913605483874143</v>
+        <v>0.1913485780274954</v>
       </c>
     </row>
     <row r="57">
@@ -8425,19 +8425,19 @@
         <v>131296</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>109849</v>
+        <v>109559</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>155649</v>
+        <v>154760</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.03952509435094093</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.03306879928795282</v>
+        <v>0.03298135556199899</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.04685629791259755</v>
+        <v>0.04658857806826731</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>158</v>
@@ -8446,19 +8446,19 @@
         <v>175967</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>148461</v>
+        <v>151793</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>202663</v>
+        <v>205534</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.05047403480795092</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.04258436322805549</v>
+        <v>0.04354009512042109</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.05813151248905708</v>
+        <v>0.05895520981141186</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>288</v>
@@ -8467,19 +8467,19 @@
         <v>307263</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>276278</v>
+        <v>273401</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>345279</v>
+        <v>340131</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.04513178761289479</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.04058066804136892</v>
+        <v>0.04015809381423792</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.05071580267553546</v>
+        <v>0.04995958919477561</v>
       </c>
     </row>
     <row r="58">
@@ -8861,19 +8861,19 @@
         <v>165752</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137259</v>
+        <v>133048</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>197721</v>
+        <v>195202</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4093704180197763</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3389989791983797</v>
+        <v>0.3285979373305303</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4883259032908065</v>
+        <v>0.4821028974681487</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -8882,19 +8882,19 @@
         <v>73204</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55161</v>
+        <v>56575</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96159</v>
+        <v>94159</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2039674474661682</v>
+        <v>0.2039674474661681</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1536937469856994</v>
+        <v>0.157635225973389</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2679279724301722</v>
+        <v>0.2623536529475</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>113</v>
@@ -8903,19 +8903,19 @@
         <v>238956</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>199402</v>
+        <v>199508</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>277828</v>
+        <v>279170</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3128535960823274</v>
+        <v>0.3128535960823275</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2610669919646104</v>
+        <v>0.2612056268650625</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.363746164433746</v>
+        <v>0.3655028453638086</v>
       </c>
     </row>
     <row r="5">
@@ -8932,19 +8932,19 @@
         <v>163272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>130690</v>
+        <v>131009</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>197643</v>
+        <v>196279</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4032434897895779</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3227743126781121</v>
+        <v>0.3235623362758107</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4881320638123333</v>
+        <v>0.484763549739444</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>75</v>
@@ -8953,19 +8953,19 @@
         <v>127609</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104059</v>
+        <v>105429</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>151928</v>
+        <v>153414</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3555545730155878</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2899375460866296</v>
+        <v>0.2937546121834311</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4233161499183457</v>
+        <v>0.4274550590276379</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>146</v>
@@ -8974,19 +8974,19 @@
         <v>290880</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>252146</v>
+        <v>250405</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>332467</v>
+        <v>331634</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.380834940019049</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3301220192896857</v>
+        <v>0.3278430432182232</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4352830881067321</v>
+        <v>0.4341920319515315</v>
       </c>
     </row>
     <row r="6">
@@ -9003,19 +9003,19 @@
         <v>66743</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44780</v>
+        <v>44561</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>93283</v>
+        <v>93528</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.164839347985532</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1105964402133719</v>
+        <v>0.1100546383833185</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2303871125629783</v>
+        <v>0.2309927680322938</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>55</v>
@@ -9024,19 +9024,19 @@
         <v>98121</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>77269</v>
+        <v>75733</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>123230</v>
+        <v>121536</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2733938798389724</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2152938530384163</v>
+        <v>0.2110141098306462</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3433548143442787</v>
+        <v>0.3386347117551815</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>84</v>
@@ -9045,19 +9045,19 @@
         <v>164864</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>133306</v>
+        <v>134523</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>196898</v>
+        <v>202913</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2158480475830247</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1745311400623136</v>
+        <v>0.1761240889127803</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2577888849308969</v>
+        <v>0.2656640484417667</v>
       </c>
     </row>
     <row r="7">
@@ -9074,19 +9074,19 @@
         <v>9129</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2732</v>
+        <v>2755</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24827</v>
+        <v>28268</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02254674420511385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006747775822354174</v>
+        <v>0.006803393991290627</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06131775077133472</v>
+        <v>0.06981643434799556</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -9095,19 +9095,19 @@
         <v>46985</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32874</v>
+        <v>30968</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67014</v>
+        <v>66850</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1309126580875393</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09159762485252868</v>
+        <v>0.08628478890205701</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1867197188888358</v>
+        <v>0.1862633448827815</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -9116,19 +9116,19 @@
         <v>56114</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35412</v>
+        <v>39983</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78153</v>
+        <v>83316</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07346681408574514</v>
+        <v>0.07346681408574515</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04636273878806395</v>
+        <v>0.05234744909900158</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1023216568256233</v>
+        <v>0.1090819671775351</v>
       </c>
     </row>
     <row r="8">
@@ -9158,19 +9158,19 @@
         <v>11911</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4685</v>
+        <v>4682</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26116</v>
+        <v>27075</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.03318699926548169</v>
+        <v>0.03318699926548168</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01305324542216241</v>
+        <v>0.01304545028258961</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07276584885684281</v>
+        <v>0.07543815607399836</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -9179,19 +9179,19 @@
         <v>11911</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4663</v>
+        <v>4670</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24602</v>
+        <v>26960</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01559424233306677</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006104851961784489</v>
+        <v>0.006113579522121388</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03220962365340716</v>
+        <v>0.03529762806169266</v>
       </c>
     </row>
     <row r="9">
@@ -9224,16 +9224,16 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5517</v>
+        <v>6275</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.002984442326250569</v>
+        <v>0.002984442326250568</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01537332693206557</v>
+        <v>0.01748407237605609</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5405</v>
+        <v>6189</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001402359896787052</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007076508596957298</v>
+        <v>0.008103219327657165</v>
       </c>
     </row>
     <row r="10">
@@ -9346,19 +9346,19 @@
         <v>169015</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>142417</v>
+        <v>141156</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>198091</v>
+        <v>196412</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3544119094036318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2986363141393834</v>
+        <v>0.2959928782635489</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4153800678973184</v>
+        <v>0.4118599888385624</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>102</v>
@@ -9367,19 +9367,19 @@
         <v>114984</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>96269</v>
+        <v>95383</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>136474</v>
+        <v>136013</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2303378665877228</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1928493380836035</v>
+        <v>0.191073290233719</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2733889237594156</v>
+        <v>0.2724638705854565</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>204</v>
@@ -9388,19 +9388,19 @@
         <v>283999</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>251702</v>
+        <v>247907</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>318550</v>
+        <v>317520</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.290957265935854</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2578691961218427</v>
+        <v>0.2539813932665933</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3263545735007958</v>
+        <v>0.3252993496556997</v>
       </c>
     </row>
     <row r="12">
@@ -9417,19 +9417,19 @@
         <v>161148</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>138464</v>
+        <v>136331</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>192880</v>
+        <v>189115</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3379153705899085</v>
+        <v>0.3379153705899086</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2903485224575708</v>
+        <v>0.2858747244241067</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4044541666931891</v>
+        <v>0.3965590746783648</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>180</v>
@@ -9438,19 +9438,19 @@
         <v>194497</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>172754</v>
+        <v>171045</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>216965</v>
+        <v>218326</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3896221739802441</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.34606508397111</v>
+        <v>0.3426417477227094</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4346290931688528</v>
+        <v>0.4373558639522991</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>288</v>
@@ -9459,19 +9459,19 @@
         <v>355646</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>320410</v>
+        <v>322500</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>390825</v>
+        <v>390133</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3643595542364459</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3282607818775745</v>
+        <v>0.3304012738291702</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4004000680149102</v>
+        <v>0.3996914330990397</v>
       </c>
     </row>
     <row r="13">
@@ -9488,19 +9488,19 @@
         <v>104228</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81502</v>
+        <v>83380</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>128086</v>
+        <v>131341</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2185586805760946</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.170904075299241</v>
+        <v>0.1748405466561798</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2685865024016304</v>
+        <v>0.2754123343528089</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>118</v>
@@ -9509,19 +9509,19 @@
         <v>126258</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>108173</v>
+        <v>108227</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>148709</v>
+        <v>147985</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.252922363136945</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2166950433132449</v>
+        <v>0.2168039966965232</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2978976781213646</v>
+        <v>0.2964473241528163</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>185</v>
@@ -9530,19 +9530,19 @@
         <v>230486</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>199514</v>
+        <v>203857</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>263802</v>
+        <v>264602</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2361331480122364</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2044019246670865</v>
+        <v>0.2088515246179978</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2702651728848441</v>
+        <v>0.271084493153058</v>
       </c>
     </row>
     <row r="14">
@@ -9559,19 +9559,19 @@
         <v>39884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24974</v>
+        <v>26502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57099</v>
+        <v>60333</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08363360827602921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0523692295150517</v>
+        <v>0.05557185736519736</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1197329324452722</v>
+        <v>0.1265135612688514</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -9580,19 +9580,19 @@
         <v>47532</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33232</v>
+        <v>33990</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>61313</v>
+        <v>63341</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09521792997872577</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06657110501003936</v>
+        <v>0.0680904115127276</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1228228781103714</v>
+        <v>0.1268872492913165</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>66</v>
@@ -9601,19 +9601,19 @@
         <v>87416</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>66873</v>
+        <v>68402</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>109169</v>
+        <v>113569</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08955812710992667</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06851183599431046</v>
+        <v>0.07007796043567883</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1118434051234927</v>
+        <v>0.1163516844786241</v>
       </c>
     </row>
     <row r="15">
@@ -9633,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12912</v>
+        <v>14327</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.005480431154335746</v>
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02707606431181216</v>
+        <v>0.03004160163010624</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>13</v>
@@ -9651,19 +9651,19 @@
         <v>13034</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7231</v>
+        <v>7278</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21265</v>
+        <v>22271</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.02611091443261482</v>
+        <v>0.02611091443261483</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01448598073876632</v>
+        <v>0.01458013100971309</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04259867540001325</v>
+        <v>0.04461476126279747</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>14</v>
@@ -9672,19 +9672,19 @@
         <v>15648</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>8772</v>
+        <v>8752</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>27797</v>
+        <v>28311</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01603138872193502</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.008986641599238307</v>
+        <v>0.00896637390206001</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02847852284452932</v>
+        <v>0.0290051317456184</v>
       </c>
     </row>
     <row r="16">
@@ -9714,19 +9714,19 @@
         <v>2890</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8521</v>
+        <v>7730</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005788751883747476</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001788005755491054</v>
+        <v>0.001767893574279587</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01706914846083451</v>
+        <v>0.01548587901425364</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -9735,19 +9735,19 @@
         <v>2890</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7849</v>
+        <v>7879</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002960515983602049</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0009092719884187029</v>
+        <v>0.0008984817813278852</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008041728683152257</v>
+        <v>0.008072436453183094</v>
       </c>
     </row>
     <row r="17">
@@ -9839,19 +9839,19 @@
         <v>208647</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>183324</v>
+        <v>183208</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>235004</v>
+        <v>234166</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3360742106462268</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2952851730199377</v>
+        <v>0.2950981311709483</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3785270022190212</v>
+        <v>0.3771777738552921</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>209</v>
@@ -9860,19 +9860,19 @@
         <v>162470</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>143449</v>
+        <v>142770</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>182091</v>
+        <v>181279</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2611479354282711</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2305746442964899</v>
+        <v>0.2294827980804758</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2926850101061792</v>
+        <v>0.2913800310726075</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>388</v>
@@ -9881,19 +9881,19 @@
         <v>371118</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>342875</v>
+        <v>338718</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>405672</v>
+        <v>402082</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2985718180108111</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2758501441477135</v>
+        <v>0.2725057999516487</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3263718184720377</v>
+        <v>0.3234831870422142</v>
       </c>
     </row>
     <row r="19">
@@ -9910,19 +9910,19 @@
         <v>219373</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>192661</v>
+        <v>195195</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>242610</v>
+        <v>246445</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3533511367618795</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3103254004844875</v>
+        <v>0.3144059767186453</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3907783301822552</v>
+        <v>0.3969561732365654</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>303</v>
@@ -9931,19 +9931,19 @@
         <v>215708</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>196404</v>
+        <v>196990</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>237463</v>
+        <v>235988</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3467191474864532</v>
+        <v>0.3467191474864533</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3156923010960398</v>
+        <v>0.3166335372019382</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3816881189074871</v>
+        <v>0.3793170806084152</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>502</v>
@@ -9952,19 +9952,19 @@
         <v>435081</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>402968</v>
+        <v>400318</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>465812</v>
+        <v>466055</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3500316675231191</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3241959016646764</v>
+        <v>0.3220638956441361</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3747554378645679</v>
+        <v>0.3749510104489846</v>
       </c>
     </row>
     <row r="20">
@@ -9981,19 +9981,19 @@
         <v>150589</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>129970</v>
+        <v>128501</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>174170</v>
+        <v>174120</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2425575814575297</v>
+        <v>0.2425575814575296</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2093464481504548</v>
+        <v>0.2069801248700457</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2805408933826002</v>
+        <v>0.2804596517845093</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -10002,19 +10002,19 @@
         <v>149241</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>130554</v>
+        <v>131678</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>170067</v>
+        <v>167412</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2398838256101697</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2098462230365587</v>
+        <v>0.2116536166098222</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2733586442254479</v>
+        <v>0.2690908843026956</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>338</v>
@@ -10023,19 +10023,19 @@
         <v>299830</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>270898</v>
+        <v>271974</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>330317</v>
+        <v>331069</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2412193027120929</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.217942918961535</v>
+        <v>0.2188084214574224</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.265746525647827</v>
+        <v>0.2663518961913898</v>
       </c>
     </row>
     <row r="21">
@@ -10052,19 +10052,19 @@
         <v>35017</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23101</v>
+        <v>24631</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>48151</v>
+        <v>51057</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05640303944327595</v>
+        <v>0.05640303944327593</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03720895624349525</v>
+        <v>0.03967342408986786</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07755778215505792</v>
+        <v>0.08223942774399648</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>102</v>
@@ -10073,19 +10073,19 @@
         <v>75659</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>62953</v>
+        <v>62066</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>89235</v>
+        <v>89252</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1216106501739104</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1011877962891009</v>
+        <v>0.09976259805008873</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1434326492980123</v>
+        <v>0.1434592562035752</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>132</v>
@@ -10094,19 +10094,19 @@
         <v>110676</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>92895</v>
+        <v>92906</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>130498</v>
+        <v>131317</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08904100807742957</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07473625833893874</v>
+        <v>0.07474507240121704</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1049882755498968</v>
+        <v>0.1056471017596605</v>
       </c>
     </row>
     <row r="22">
@@ -10123,19 +10123,19 @@
         <v>5812</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2039</v>
+        <v>2168</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13431</v>
+        <v>13123</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009361454271546559</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003284633325826067</v>
+        <v>0.003492234650892346</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02163416016643606</v>
+        <v>0.02113738355520664</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -10144,19 +10144,19 @@
         <v>18288</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12164</v>
+        <v>12567</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26670</v>
+        <v>27086</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02939505039763997</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01955157356252907</v>
+        <v>0.02019892447502678</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04286802846837643</v>
+        <v>0.04353738617407282</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -10165,19 +10165,19 @@
         <v>24100</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16594</v>
+        <v>15016</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34904</v>
+        <v>33099</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01938874824331538</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01335036640249316</v>
+        <v>0.01208059160291384</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0280810171177407</v>
+        <v>0.02662905686816477</v>
       </c>
     </row>
     <row r="23">
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7753</v>
+        <v>7695</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.002252577419541563</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01248808475796407</v>
+        <v>0.01239397110758536</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -10218,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4611</v>
+        <v>3505</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.001243390903555609</v>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.007411924227659441</v>
+        <v>0.00563419415018041</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>8279</v>
+        <v>7129</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.001747455433231977</v>
@@ -10248,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.00666055755723503</v>
+        <v>0.005735122090565592</v>
       </c>
     </row>
     <row r="24">
@@ -10340,19 +10340,19 @@
         <v>228052</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>203010</v>
+        <v>204687</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>254016</v>
+        <v>256040</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3260159838502291</v>
+        <v>0.326015983850229</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2902165572839756</v>
+        <v>0.2926132176833455</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3631324873420817</v>
+        <v>0.3660263946174981</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>241</v>
@@ -10361,19 +10361,19 @@
         <v>159827</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>143196</v>
+        <v>141360</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>176184</v>
+        <v>177283</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2172690887614816</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1946606903823983</v>
+        <v>0.192165142080702</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2395057109201036</v>
+        <v>0.2409988986313363</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>453</v>
@@ -10382,19 +10382,19 @@
         <v>387879</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>355930</v>
+        <v>357367</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>418591</v>
+        <v>424232</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2702746826489295</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2480128471556674</v>
+        <v>0.2490138597814985</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2916746073218363</v>
+        <v>0.2956052442142259</v>
       </c>
     </row>
     <row r="26">
@@ -10411,19 +10411,19 @@
         <v>236148</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>211757</v>
+        <v>211077</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>264193</v>
+        <v>262299</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3375894817889675</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3027201169721269</v>
+        <v>0.3017485745993604</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3776810429853914</v>
+        <v>0.3749732497164713</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>406</v>
@@ -10432,19 +10432,19 @@
         <v>260256</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>240071</v>
+        <v>240289</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>279625</v>
+        <v>281862</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3537937987707331</v>
+        <v>0.3537937987707332</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3263531787144944</v>
+        <v>0.3266496058969104</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3801241327054983</v>
+        <v>0.3831642597961564</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>635</v>
@@ -10453,19 +10453,19 @@
         <v>496405</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>464166</v>
+        <v>462682</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>528753</v>
+        <v>531351</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3458954634255447</v>
+        <v>0.3458954634255448</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3234316015762306</v>
+        <v>0.3223972599567701</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3684361419021832</v>
+        <v>0.3702460645056133</v>
       </c>
     </row>
     <row r="27">
@@ -10482,19 +10482,19 @@
         <v>179324</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>158002</v>
+        <v>157332</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>204182</v>
+        <v>204417</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2563548596474259</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2258739657980468</v>
+        <v>0.2249158942347102</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2918912992296531</v>
+        <v>0.292228075038941</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>319</v>
@@ -10503,19 +10503,19 @@
         <v>202803</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>185248</v>
+        <v>184038</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>222739</v>
+        <v>222229</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.2756914072912319</v>
+        <v>0.275691407291232</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2518264626860261</v>
+        <v>0.2501827968523311</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3027925661206378</v>
+        <v>0.3020992477303273</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>488</v>
@@ -10524,19 +10524,19 @@
         <v>382127</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>352385</v>
+        <v>352837</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>413501</v>
+        <v>411766</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.2662663548264565</v>
+        <v>0.2662663548264566</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.245542380451936</v>
+        <v>0.245857010580685</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2881283852887662</v>
+        <v>0.2869189846749606</v>
       </c>
     </row>
     <row r="28">
@@ -10553,19 +10553,19 @@
         <v>40941</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29395</v>
+        <v>29014</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54771</v>
+        <v>55129</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05852764598227615</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04202218088852674</v>
+        <v>0.0414771885850654</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07829897801974781</v>
+        <v>0.07881068627305385</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>127</v>
@@ -10574,19 +10574,19 @@
         <v>82396</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>68883</v>
+        <v>69766</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>97759</v>
+        <v>96958</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1120099290586733</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09363983397855868</v>
+        <v>0.09484089841927218</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1328936058181867</v>
+        <v>0.1318056459367948</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>167</v>
@@ -10595,19 +10595,19 @@
         <v>123337</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>106699</v>
+        <v>106319</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>142777</v>
+        <v>142409</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08594150499371467</v>
+        <v>0.08594150499371468</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07434804565329305</v>
+        <v>0.07408357848307813</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09948717150422184</v>
+        <v>0.09923105424075117</v>
       </c>
     </row>
     <row r="29">
@@ -10624,19 +10624,19 @@
         <v>13031</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6872</v>
+        <v>7109</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23495</v>
+        <v>22199</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01862810247944705</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009824436264581536</v>
+        <v>0.01016338371678627</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03358834654148819</v>
+        <v>0.03173456596532855</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>41</v>
@@ -10645,19 +10645,19 @@
         <v>27057</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19378</v>
+        <v>19312</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>35652</v>
+        <v>35468</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03678114490967042</v>
+        <v>0.03678114490967043</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02634253258999</v>
+        <v>0.02625255550620334</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0484659158825307</v>
+        <v>0.04821486396379563</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>53</v>
@@ -10666,19 +10666,19 @@
         <v>40087</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>29540</v>
+        <v>30022</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>52406</v>
+        <v>54054</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.02793295853990992</v>
+        <v>0.02793295853990993</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02058356339944481</v>
+        <v>0.02091932218154715</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03651638974682092</v>
+        <v>0.03766496541647225</v>
       </c>
     </row>
     <row r="30">
@@ -10698,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7014</v>
+        <v>6234</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.002883926251654249</v>
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01002750083129725</v>
+        <v>0.008912548065434175</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -10716,19 +10716,19 @@
         <v>3277</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1120</v>
+        <v>1274</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7029</v>
+        <v>7893</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.004454631208209592</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001522292971684039</v>
+        <v>0.001731687743665353</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.00955500353398263</v>
+        <v>0.01073044708183661</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -10737,19 +10737,19 @@
         <v>5294</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2292</v>
+        <v>2231</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11132</v>
+        <v>10861</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.003689035565444533</v>
+        <v>0.003689035565444534</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001596772340690893</v>
+        <v>0.001554258828793495</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.00775682990345778</v>
+        <v>0.007567731544128666</v>
       </c>
     </row>
     <row r="31">
@@ -10841,19 +10841,19 @@
         <v>153587</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>132479</v>
+        <v>134344</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>174542</v>
+        <v>176626</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2520519248334339</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2174110856477911</v>
+        <v>0.2204725298967984</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2864410797081965</v>
+        <v>0.2898618720941724</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>220</v>
@@ -10862,19 +10862,19 @@
         <v>135831</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>120503</v>
+        <v>119602</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>152140</v>
+        <v>151868</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2246082940113541</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1992615749515635</v>
+        <v>0.1977714190636622</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2515764719078716</v>
+        <v>0.2511268949869782</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>377</v>
@@ -10883,19 +10883,19 @@
         <v>289418</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>263068</v>
+        <v>260883</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>316121</v>
+        <v>315520</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2383820852810618</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2166784864682086</v>
+        <v>0.2148787341189883</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2603760528073376</v>
+        <v>0.2598812159938003</v>
       </c>
     </row>
     <row r="33">
@@ -10912,19 +10912,19 @@
         <v>202388</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>180226</v>
+        <v>180513</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>225277</v>
+        <v>224743</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3321390037728701</v>
+        <v>0.33213900377287</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2957702768598006</v>
+        <v>0.2962399279552081</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3697032811818058</v>
+        <v>0.3688269121535728</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>353</v>
@@ -10933,19 +10933,19 @@
         <v>212745</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>194284</v>
+        <v>195849</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>231903</v>
+        <v>231566</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3517909786804272</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3212651925122902</v>
+        <v>0.3238521408288475</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3834697027866031</v>
+        <v>0.3829127615714788</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>580</v>
@@ -10954,19 +10954,19 @@
         <v>415132</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>384812</v>
+        <v>387593</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>443888</v>
+        <v>441362</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.3419277720891023</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3169536811375215</v>
+        <v>0.3192442274408746</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3656124887020377</v>
+        <v>0.3635315921754452</v>
       </c>
     </row>
     <row r="34">
@@ -10983,19 +10983,19 @@
         <v>177176</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>155887</v>
+        <v>156569</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>200218</v>
+        <v>199176</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2907635055168121</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2558264385363736</v>
+        <v>0.2569463134627032</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3285777420410966</v>
+        <v>0.3268687486545094</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>271</v>
@@ -11004,19 +11004,19 @@
         <v>163101</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>147861</v>
+        <v>145082</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>182061</v>
+        <v>181207</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2697008889134604</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2445003835054416</v>
+        <v>0.239905076922467</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3010524944760122</v>
+        <v>0.2996397488633337</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>467</v>
@@ -11025,19 +11025,19 @@
         <v>340277</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>314528</v>
+        <v>314791</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>370187</v>
+        <v>368371</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2802720879858162</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2590643266231438</v>
+        <v>0.2592805583621728</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3049076419555368</v>
+        <v>0.3034123598259362</v>
       </c>
     </row>
     <row r="35">
@@ -11054,19 +11054,19 @@
         <v>56143</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>44093</v>
+        <v>42677</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>71956</v>
+        <v>70242</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.09213704882794338</v>
+        <v>0.09213704882794337</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07236089323845299</v>
+        <v>0.07003793726168368</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1180865472832843</v>
+        <v>0.1152741568287426</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>121</v>
@@ -11075,19 +11075,19 @@
         <v>75207</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>63147</v>
+        <v>62901</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>87472</v>
+        <v>88468</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1243601754873606</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1044193436224927</v>
+        <v>0.1040117836631884</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1446413450110737</v>
+        <v>0.1462892205093834</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>181</v>
@@ -11096,19 +11096,19 @@
         <v>131350</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>114235</v>
+        <v>112689</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>151964</v>
+        <v>150775</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1081875843480323</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09409046916996139</v>
+        <v>0.09281743382212279</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1251664310422387</v>
+        <v>0.1241871292826683</v>
       </c>
     </row>
     <row r="36">
@@ -11125,19 +11125,19 @@
         <v>17077</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10637</v>
+        <v>10812</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>25319</v>
+        <v>24957</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02802525132585898</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01745605675178873</v>
+        <v>0.01774436971169986</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04155140614326581</v>
+        <v>0.04095698340525786</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>29</v>
@@ -11146,19 +11146,19 @@
         <v>17325</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>11549</v>
+        <v>11639</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>24769</v>
+        <v>24107</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02864842227390367</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01909766235867356</v>
+        <v>0.01924681156603446</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04095831046459619</v>
+        <v>0.039862246906038</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>49</v>
@@ -11167,19 +11167,19 @@
         <v>34402</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>26240</v>
+        <v>25558</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>46385</v>
+        <v>44761</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02833565656810618</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02161242287299816</v>
+        <v>0.02105074911039464</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03820564961910874</v>
+        <v>0.03686795255388384</v>
       </c>
     </row>
     <row r="37">
@@ -11196,19 +11196,19 @@
         <v>2976</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>8678</v>
+        <v>7436</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.004883265723081554</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.001376803267693201</v>
+        <v>0.001374458731900838</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01424157966032607</v>
+        <v>0.01220355468628648</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2693</v>
+        <v>2715</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0008912406334939613</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.004453604578600986</v>
+        <v>0.00448982740045166</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4</v>
@@ -11238,19 +11238,19 @@
         <v>3515</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>9499</v>
+        <v>8306</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.002894813727881208</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0008784950515523501</v>
+        <v>0.0008705757727900075</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.007823581556827202</v>
+        <v>0.006840988422859808</v>
       </c>
     </row>
     <row r="38">
@@ -11342,19 +11342,19 @@
         <v>79739</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>66696</v>
+        <v>66703</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>95341</v>
+        <v>94260</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1971097821049522</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1648681526106701</v>
+        <v>0.1648847399257361</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2356766316795901</v>
+        <v>0.2330059303299184</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>169</v>
@@ -11363,19 +11363,19 @@
         <v>87453</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>76677</v>
+        <v>76140</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>99594</v>
+        <v>100114</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.199606991017668</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1750111015248662</v>
+        <v>0.1737860406049234</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2273184720171907</v>
+        <v>0.2285053443019327</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>278</v>
@@ -11384,19 +11384,19 @@
         <v>167192</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>149712</v>
+        <v>150164</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>184395</v>
+        <v>188161</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.198408150612347</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1776652219488532</v>
+        <v>0.1782008934079481</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2188230267486654</v>
+        <v>0.2232928159480845</v>
       </c>
     </row>
     <row r="40">
@@ -11413,19 +11413,19 @@
         <v>152980</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>135844</v>
+        <v>136646</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>169594</v>
+        <v>169774</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.3781570688924483</v>
+        <v>0.3781570688924484</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3357974454212611</v>
+        <v>0.337779851474009</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4192259127048226</v>
+        <v>0.4196718105618699</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>280</v>
@@ -11434,19 +11434,19 @@
         <v>143637</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>129790</v>
+        <v>130585</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>159085</v>
+        <v>159295</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.327844417730782</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2962397070629131</v>
+        <v>0.2980539942920654</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3631040985841024</v>
+        <v>0.3635815316391799</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>499</v>
@@ -11455,19 +11455,19 @@
         <v>296617</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>275648</v>
+        <v>275695</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>318435</v>
+        <v>318831</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3519981194112038</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3271138394149845</v>
+        <v>0.3271696846039735</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3778902857077684</v>
+        <v>0.3783601312544582</v>
       </c>
     </row>
     <row r="41">
@@ -11484,19 +11484,19 @@
         <v>113416</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>99714</v>
+        <v>98519</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>129577</v>
+        <v>129580</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2803575017806101</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2464868899401391</v>
+        <v>0.2435332460661868</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3203050469858773</v>
+        <v>0.3203135168651813</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>250</v>
@@ -11505,19 +11505,19 @@
         <v>136045</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>122753</v>
+        <v>121504</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>149106</v>
+        <v>150185</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3105154502258806</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2801783562646043</v>
+        <v>0.2773256989709812</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3403274654482021</v>
+        <v>0.3427904464023198</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>410</v>
@@ -11526,19 +11526,19 @@
         <v>249461</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>230386</v>
+        <v>230000</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>271039</v>
+        <v>269939</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.2960374596365952</v>
+        <v>0.2960374596365953</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2734017843914786</v>
+        <v>0.2729433776548136</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3216443323304598</v>
+        <v>0.3203397954825</v>
       </c>
     </row>
     <row r="42">
@@ -11555,19 +11555,19 @@
         <v>41966</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>32540</v>
+        <v>31475</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>53189</v>
+        <v>52943</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1037365673462192</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08043608641597187</v>
+        <v>0.07780413046927925</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1314795813672082</v>
+        <v>0.1308724329880555</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>97</v>
@@ -11576,19 +11576,19 @@
         <v>54376</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>45265</v>
+        <v>44139</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>65371</v>
+        <v>65422</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1241107005877187</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1033148733708401</v>
+        <v>0.1007456062293098</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1492052174179169</v>
+        <v>0.1493228589275876</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>152</v>
@@ -11597,19 +11597,19 @@
         <v>96342</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>81648</v>
+        <v>82982</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>111837</v>
+        <v>111970</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1143296470166979</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09689250325509247</v>
+        <v>0.0984758019694118</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1327184009967162</v>
+        <v>0.1328759194262858</v>
       </c>
     </row>
     <row r="43">
@@ -11626,19 +11626,19 @@
         <v>13565</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>8471</v>
+        <v>8599</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>20403</v>
+        <v>19599</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03353105624648867</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02093938154661149</v>
+        <v>0.02125640797605116</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05043601337028675</v>
+        <v>0.04844754683620051</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>25</v>
@@ -11647,19 +11647,19 @@
         <v>14374</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>9939</v>
+        <v>9878</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>20744</v>
+        <v>20644</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03280734227407588</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02268599486307618</v>
+        <v>0.02254506521212176</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04734819924807075</v>
+        <v>0.04711791091336361</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>45</v>
@@ -11668,19 +11668,19 @@
         <v>27938</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>20799</v>
+        <v>20530</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>37330</v>
+        <v>36507</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.03315477718334836</v>
+        <v>0.03315477718334837</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02468220122738198</v>
+        <v>0.02436319049811682</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04430014750991046</v>
+        <v>0.04332282355195002</v>
       </c>
     </row>
     <row r="44">
@@ -11697,19 +11697,19 @@
         <v>2875</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>6837</v>
+        <v>6742</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.007108023629281427</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.001528057516623559</v>
+        <v>0.001504572921260362</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01690039580031735</v>
+        <v>0.01666548860557108</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>4</v>
@@ -11718,19 +11718,19 @@
         <v>2241</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>5273</v>
+        <v>5426</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.005115098163874661</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.001484186202853387</v>
+        <v>0.001495263383288355</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01203484085366316</v>
+        <v>0.01238413614834789</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>8</v>
@@ -11739,19 +11739,19 @@
         <v>5117</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2265</v>
+        <v>2485</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>9554</v>
+        <v>10029</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.006071846139807725</v>
+        <v>0.006071846139807726</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.002687967008569392</v>
+        <v>0.002948648954301589</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01133726390305383</v>
+        <v>0.01190196082449829</v>
       </c>
     </row>
     <row r="45">
@@ -11843,19 +11843,19 @@
         <v>53838</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>42983</v>
+        <v>43580</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>65163</v>
+        <v>66432</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.1782097735054508</v>
+        <v>0.1782097735054507</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1422764256457944</v>
+        <v>0.1442538470006016</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2156943376660335</v>
+        <v>0.2198956030083751</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>102</v>
@@ -11864,19 +11864,19 @@
         <v>53710</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>45169</v>
+        <v>44433</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>65144</v>
+        <v>65498</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.1186102597040819</v>
+        <v>0.118610259704082</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.09974936223315417</v>
+        <v>0.09812446709832337</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1438609057247533</v>
+        <v>0.1446429828389279</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>179</v>
@@ -11885,19 +11885,19 @@
         <v>107548</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>91723</v>
+        <v>94082</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>123163</v>
+        <v>123291</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1424606025749449</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1214984529811449</v>
+        <v>0.1246222406159763</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1631443502215833</v>
+        <v>0.1633137722419431</v>
       </c>
     </row>
     <row r="47">
@@ -11914,19 +11914,19 @@
         <v>95788</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>82467</v>
+        <v>82838</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>109973</v>
+        <v>108329</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.3170650898676078</v>
+        <v>0.3170650898676077</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2729726880785039</v>
+        <v>0.274199577962139</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3640190340567312</v>
+        <v>0.3585793186922438</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>295</v>
@@ -11935,19 +11935,19 @@
         <v>151501</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>138791</v>
+        <v>136561</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>167311</v>
+        <v>166377</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.3345670374174419</v>
+        <v>0.334567037417442</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3064999080684203</v>
+        <v>0.301573335194499</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3694812665655117</v>
+        <v>0.3674185787013522</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>441</v>
@@ -11956,19 +11956,19 @@
         <v>247289</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>228235</v>
+        <v>227882</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>268986</v>
+        <v>268143</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3275631640072897</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3023237904766291</v>
+        <v>0.3018567151785774</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3563039378841081</v>
+        <v>0.3551878889449972</v>
       </c>
     </row>
     <row r="48">
@@ -11985,19 +11985,19 @@
         <v>95775</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>82325</v>
+        <v>83220</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>108927</v>
+        <v>109379</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.3170239847737673</v>
+        <v>0.3170239847737672</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2725024888287566</v>
+        <v>0.2754664651404072</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3605574894133902</v>
+        <v>0.3620530404698001</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>295</v>
@@ -12006,19 +12006,19 @@
         <v>155534</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>139836</v>
+        <v>140857</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>170225</v>
+        <v>170414</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.343472297524005</v>
+        <v>0.3434722975240051</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3088062366521248</v>
+        <v>0.3110621791630758</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3759164766827414</v>
+        <v>0.3763341266172695</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>438</v>
@@ -12027,19 +12027,19 @@
         <v>251309</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>232671</v>
+        <v>228799</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>271696</v>
+        <v>271307</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.3328882962928658</v>
+        <v>0.3328882962928659</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3082001008123627</v>
+        <v>0.303072055436312</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3598942232426902</v>
+        <v>0.3593779019977307</v>
       </c>
     </row>
     <row r="49">
@@ -12056,19 +12056,19 @@
         <v>48790</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>39808</v>
+        <v>38719</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>62358</v>
+        <v>59720</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1615000775418029</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1317672229962914</v>
+        <v>0.1281628777497983</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2064112038487982</v>
+        <v>0.1976793392039615</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>133</v>
@@ -12077,19 +12077,19 @@
         <v>74516</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>63162</v>
+        <v>63828</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>87337</v>
+        <v>87588</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1645569722383275</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1394832844511229</v>
+        <v>0.1409552624863811</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1928708674748576</v>
+        <v>0.1934248943102836</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>203</v>
@@ -12098,19 +12098,19 @@
         <v>123306</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>107788</v>
+        <v>107723</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>139510</v>
+        <v>140683</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1633336738927198</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1427779111315531</v>
+        <v>0.1426921480749496</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1847972069655384</v>
+        <v>0.1863516876618173</v>
       </c>
     </row>
     <row r="50">
@@ -12127,19 +12127,19 @@
         <v>7060</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>3414</v>
+        <v>3609</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>12803</v>
+        <v>12888</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.02336784844801586</v>
+        <v>0.02336784844801585</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01130127538465869</v>
+        <v>0.01194500203075297</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.04237932793558669</v>
+        <v>0.04265956818453973</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>26</v>
@@ -12148,19 +12148,19 @@
         <v>15977</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>10593</v>
+        <v>10461</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>23737</v>
+        <v>23404</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.03528279383709336</v>
+        <v>0.03528279383709337</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02339378917721973</v>
+        <v>0.02310185071879152</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.05241957038332377</v>
+        <v>0.05168410475309179</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>36</v>
@@ -12169,19 +12169,19 @@
         <v>23037</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>16480</v>
+        <v>15986</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>31974</v>
+        <v>31334</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.0305147090878755</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.02182932831284715</v>
+        <v>0.02117478573769799</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.04235395607750948</v>
+        <v>0.04150596517156555</v>
       </c>
     </row>
     <row r="51">
@@ -12201,16 +12201,16 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>4096</v>
+        <v>4819</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.002833225863355583</v>
+        <v>0.002833225863355582</v>
       </c>
       <c r="H51" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.01355961750800201</v>
+        <v>0.01595015554841437</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>3</v>
@@ -12219,19 +12219,19 @@
         <v>1590</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>4328</v>
+        <v>4288</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.003510639279050106</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.0008775762673310329</v>
+        <v>0.0008833625938978795</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.009557943794541862</v>
+        <v>0.009469392030627022</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>4</v>
@@ -12240,19 +12240,19 @@
         <v>2446</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>6277</v>
+        <v>6555</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.003239554144304162</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.0008454011744267835</v>
+        <v>0.0008597684500004462</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.0083148794751161</v>
+        <v>0.008682440911984652</v>
       </c>
     </row>
     <row r="52">
@@ -12344,19 +12344,19 @@
         <v>1058632</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>993725</v>
+        <v>996783</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1124948</v>
+        <v>1119814</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.3009075539089355</v>
+        <v>0.3009075539089356</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2824582599815783</v>
+        <v>0.28332744814632</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.3197575064324266</v>
+        <v>0.3182979540556095</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>1088</v>
@@ -12365,19 +12365,19 @@
         <v>787479</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>745159</v>
+        <v>742410</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>836551</v>
+        <v>832913</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.2121697154798914</v>
+        <v>0.2121697154798913</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2007674900096871</v>
+        <v>0.2000269357406995</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2253913118457563</v>
+        <v>0.2244110553084563</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1992</v>
@@ -12386,19 +12386,19 @@
         <v>1846111</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1780900</v>
+        <v>1774703</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1935564</v>
+        <v>1924471</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.2553516014715136</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.2463317715320412</v>
+        <v>0.245474638418324</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2677246218131328</v>
+        <v>0.2661902587195977</v>
       </c>
     </row>
     <row r="54">
@@ -12415,19 +12415,19 @@
         <v>1231097</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1167248</v>
+        <v>1163457</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1292421</v>
+        <v>1296269</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3499293592708378</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3317807196298123</v>
+        <v>0.3307032387031888</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3673601760187391</v>
+        <v>0.3684539688543745</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1892</v>
@@ -12436,19 +12436,19 @@
         <v>1305953</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1256158</v>
+        <v>1247857</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1358842</v>
+        <v>1356981</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3518617707884136</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3384455505918206</v>
+        <v>0.336209094941855</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3661116111701205</v>
+        <v>0.365610293865356</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>3091</v>
@@ -12457,19 +12457,19 @@
         <v>2537050</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2461718</v>
+        <v>2457003</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2622199</v>
+        <v>2613888</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3509214146188459</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3405015996653453</v>
+        <v>0.3398494658008714</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3626991342340653</v>
+        <v>0.361549539013362</v>
       </c>
     </row>
     <row r="55">
@@ -12486,19 +12486,19 @@
         <v>887250</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>828695</v>
+        <v>834517</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>944124</v>
+        <v>944877</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.2521937510128582</v>
+        <v>0.2521937510128583</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2355499487091828</v>
+        <v>0.237204753075947</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2683596292883644</v>
+        <v>0.2685737270770872</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1514</v>
@@ -12507,19 +12507,19 @@
         <v>1031102</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>981307</v>
+        <v>982758</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1083885</v>
+        <v>1082820</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2778089860154805</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.264392724734031</v>
+        <v>0.2647836623893257</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2920302117837945</v>
+        <v>0.2917432135311317</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2410</v>
@@ -12528,19 +12528,19 @@
         <v>1918353</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1849382</v>
+        <v>1844187</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1988614</v>
+        <v>1999119</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2653440198058707</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2558040565549128</v>
+        <v>0.2550854699184158</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2750624658211058</v>
+        <v>0.2765154990298657</v>
       </c>
     </row>
     <row r="56">
@@ -12557,19 +12557,19 @@
         <v>271870</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>238393</v>
+        <v>238246</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>309428</v>
+        <v>306246</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.07727696998654456</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.06776139266125589</v>
+        <v>0.06771948479227209</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.0879522747070552</v>
+        <v>0.08704794869982256</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>647</v>
@@ -12578,19 +12578,19 @@
         <v>456670</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>420014</v>
+        <v>423084</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>490758</v>
+        <v>495070</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1230403213971725</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.113163979517101</v>
+        <v>0.1139911097491283</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.13222455748602</v>
+        <v>0.1333863982238308</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>929</v>
@@ -12599,19 +12599,19 @@
         <v>728541</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>677594</v>
+        <v>677101</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>779667</v>
+        <v>781370</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1007708154209994</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.09372390724463937</v>
+        <v>0.09365575664041038</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1078425779327716</v>
+        <v>0.1080781055562182</v>
       </c>
     </row>
     <row r="57">
@@ -12628,19 +12628,19 @@
         <v>59157</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>44801</v>
+        <v>46524</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>74009</v>
+        <v>75361</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.01681502782260796</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.01273424494586393</v>
+        <v>0.01322410374770721</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.02103642434412231</v>
+        <v>0.02142065537788791</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>164</v>
@@ -12649,19 +12649,19 @@
         <v>117966</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>101126</v>
+        <v>101426</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>140021</v>
+        <v>138749</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.03178339395579893</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.02724619879257555</v>
+        <v>0.02732704024422705</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.03772578471535826</v>
+        <v>0.03738299008731934</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>232</v>
@@ -12670,19 +12670,19 @@
         <v>177123</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>153540</v>
+        <v>156011</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>201640</v>
+        <v>201379</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.02449944055680835</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.02123743601158357</v>
+        <v>0.02157926468926989</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.0278905806373785</v>
+        <v>0.02785445979459014</v>
       </c>
     </row>
     <row r="58">
@@ -12699,19 +12699,19 @@
         <v>10123</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>4941</v>
+        <v>5188</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>17440</v>
+        <v>17914</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.002877337998215853</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.00140433470909517</v>
+        <v>0.001474753716851572</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.004957136235549885</v>
+        <v>0.005091773965244967</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>18</v>
@@ -12720,19 +12720,19 @@
         <v>12381</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>7334</v>
+        <v>7428</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>19806</v>
+        <v>20118</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.003335812363243103</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.001975973744578994</v>
+        <v>0.002001425030347129</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.005336287735755671</v>
+        <v>0.005420322060118171</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>29</v>
@@ -12741,19 +12741,19 @@
         <v>22504</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>15385</v>
+        <v>15271</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>32192</v>
+        <v>32604</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.003112708125961973</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.002127978592245424</v>
+        <v>0.002112311894182846</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.004452753818649274</v>
+        <v>0.004509801112853061</v>
       </c>
     </row>
     <row r="59">
